--- a/imputaciones_limpio.xlsx
+++ b/imputaciones_limpio.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I742"/>
+  <dimension ref="A1:H742"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,11 +478,6 @@
           <t>Observaciones</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 8</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -511,7 +506,6 @@
         <v>0</v>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -540,7 +534,6 @@
         <v>0</v>
       </c>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -569,7 +562,6 @@
         <v>0</v>
       </c>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -598,7 +590,6 @@
         <v>0</v>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -627,7 +618,6 @@
         <v>0</v>
       </c>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -656,7 +646,6 @@
         <v>0</v>
       </c>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -685,7 +674,6 @@
         <v>0</v>
       </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -714,7 +702,6 @@
         <v>0</v>
       </c>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -747,7 +734,6 @@
           <t>RET IIBB TUCUMAN 33100559689</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -776,7 +762,6 @@
         <v>0</v>
       </c>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -805,7 +790,6 @@
         <v>0</v>
       </c>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -834,7 +818,6 @@
         <v>0</v>
       </c>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -863,7 +846,6 @@
         <v>0</v>
       </c>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -892,7 +874,6 @@
         <v>0</v>
       </c>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -921,7 +902,6 @@
         <v>0</v>
       </c>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -950,7 +930,6 @@
         <v>0</v>
       </c>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -979,7 +958,6 @@
         <v>0</v>
       </c>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1008,7 +986,6 @@
         <v>0</v>
       </c>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1037,7 +1014,6 @@
         <v>0</v>
       </c>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1066,7 +1042,6 @@
         <v>0</v>
       </c>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1095,7 +1070,6 @@
         <v>0</v>
       </c>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1128,7 +1102,6 @@
           <t>RET IIBB TUCUMAN 331005610314</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1157,7 +1130,6 @@
         <v>0</v>
       </c>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1190,7 +1162,6 @@
           <t>RET IIBB TUCUMAN 331005607230</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1223,7 +1194,6 @@
           <t>RET IIBB TUCUMAN 331005607229</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1252,7 +1222,6 @@
         <v>0</v>
       </c>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1281,7 +1250,6 @@
         <v>0</v>
       </c>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1310,7 +1278,6 @@
         <v>0</v>
       </c>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1339,7 +1306,6 @@
         <v>0</v>
       </c>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1368,7 +1334,6 @@
         <v>0</v>
       </c>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1397,7 +1362,6 @@
         <v>0</v>
       </c>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1426,7 +1390,6 @@
         <v>0</v>
       </c>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1455,7 +1418,6 @@
         <v>0</v>
       </c>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1484,7 +1446,6 @@
         <v>0</v>
       </c>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1513,7 +1474,6 @@
         <v>0</v>
       </c>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1542,7 +1502,6 @@
         <v>0</v>
       </c>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1575,7 +1534,6 @@
           <t>Imputar a FA 3000-8029</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1604,7 +1562,6 @@
         <v>0</v>
       </c>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1633,7 +1590,6 @@
         <v>0</v>
       </c>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1662,7 +1618,6 @@
         <v>0</v>
       </c>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1691,7 +1646,6 @@
         <v>0</v>
       </c>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1720,7 +1674,6 @@
         <v>0</v>
       </c>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1749,7 +1702,6 @@
         <v>0</v>
       </c>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1778,7 +1730,6 @@
         <v>0</v>
       </c>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1807,7 +1758,6 @@
         <v>0</v>
       </c>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1836,7 +1786,6 @@
         <v>0</v>
       </c>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1865,7 +1814,6 @@
         <v>0</v>
       </c>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1894,7 +1842,6 @@
         <v>0</v>
       </c>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1927,7 +1874,6 @@
           <t>.</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1956,7 +1902,6 @@
         <v>0</v>
       </c>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1985,7 +1930,6 @@
         <v>85.56999999999999</v>
       </c>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2014,7 +1958,6 @@
         <v>0</v>
       </c>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2043,7 +1986,6 @@
         <v>0</v>
       </c>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2072,7 +2014,6 @@
         <v>0</v>
       </c>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2101,7 +2042,6 @@
         <v>0</v>
       </c>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2130,7 +2070,6 @@
         <v>0</v>
       </c>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2163,7 +2102,6 @@
           <t>.</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2192,7 +2130,6 @@
         <v>0</v>
       </c>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2221,7 +2158,6 @@
         <v>0</v>
       </c>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2250,7 +2186,6 @@
         <v>0</v>
       </c>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2279,7 +2214,6 @@
         <v>0</v>
       </c>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2308,7 +2242,6 @@
         <v>0</v>
       </c>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2337,7 +2270,6 @@
         <v>0</v>
       </c>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2366,7 +2298,6 @@
         <v>0</v>
       </c>
       <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2395,7 +2326,6 @@
         <v>0</v>
       </c>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2424,7 +2354,6 @@
         <v>0</v>
       </c>
       <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2453,7 +2382,6 @@
         <v>0</v>
       </c>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2482,7 +2410,6 @@
         <v>0</v>
       </c>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2511,7 +2438,6 @@
         <v>0</v>
       </c>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2540,7 +2466,6 @@
         <v>0</v>
       </c>
       <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2569,7 +2494,6 @@
         <v>0</v>
       </c>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2598,7 +2522,6 @@
         <v>0</v>
       </c>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2627,7 +2550,6 @@
         <v>0</v>
       </c>
       <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2656,7 +2578,6 @@
         <v>0</v>
       </c>
       <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2685,7 +2606,6 @@
         <v>0</v>
       </c>
       <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2714,7 +2634,6 @@
         <v>0</v>
       </c>
       <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2743,7 +2662,6 @@
         <v>0</v>
       </c>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2772,7 +2690,6 @@
         <v>0</v>
       </c>
       <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2801,7 +2718,6 @@
         <v>0</v>
       </c>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2830,7 +2746,6 @@
         <v>0</v>
       </c>
       <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2859,7 +2774,6 @@
         <v>0</v>
       </c>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2888,7 +2802,6 @@
         <v>0</v>
       </c>
       <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2917,7 +2830,6 @@
         <v>0</v>
       </c>
       <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2946,7 +2858,6 @@
         <v>0</v>
       </c>
       <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2975,7 +2886,6 @@
         <v>0</v>
       </c>
       <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3004,7 +2914,6 @@
         <v>0</v>
       </c>
       <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3033,7 +2942,6 @@
         <v>0</v>
       </c>
       <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3062,7 +2970,6 @@
         <v>0</v>
       </c>
       <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3091,7 +2998,6 @@
         <v>0</v>
       </c>
       <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3120,7 +3026,6 @@
         <v>0</v>
       </c>
       <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3149,7 +3054,6 @@
         <v>310498.89</v>
       </c>
       <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3178,7 +3082,6 @@
         <v>0</v>
       </c>
       <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -3207,7 +3110,6 @@
         <v>0</v>
       </c>
       <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3236,7 +3138,6 @@
         <v>0</v>
       </c>
       <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -3265,7 +3166,6 @@
         <v>0</v>
       </c>
       <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -3294,7 +3194,6 @@
         <v>0</v>
       </c>
       <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3323,7 +3222,6 @@
         <v>0</v>
       </c>
       <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -3352,7 +3250,6 @@
         <v>0</v>
       </c>
       <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -3381,7 +3278,6 @@
         <v>0</v>
       </c>
       <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -3410,7 +3306,6 @@
         <v>0</v>
       </c>
       <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -3439,7 +3334,6 @@
         <v>0</v>
       </c>
       <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -3468,7 +3362,6 @@
         <v>0</v>
       </c>
       <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -3497,7 +3390,6 @@
         <v>0</v>
       </c>
       <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -3526,7 +3418,6 @@
         <v>435355.69</v>
       </c>
       <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -3555,7 +3446,6 @@
         <v>0</v>
       </c>
       <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -3584,7 +3474,6 @@
         <v>0</v>
       </c>
       <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -3613,7 +3502,6 @@
         <v>0</v>
       </c>
       <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -3642,7 +3530,6 @@
         <v>0</v>
       </c>
       <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -3671,7 +3558,6 @@
         <v>0</v>
       </c>
       <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -3700,7 +3586,6 @@
         <v>0</v>
       </c>
       <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -3729,7 +3614,6 @@
         <v>0</v>
       </c>
       <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3758,7 +3642,6 @@
         <v>0</v>
       </c>
       <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3787,7 +3670,6 @@
         <v>0</v>
       </c>
       <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -3816,7 +3698,6 @@
         <v>0</v>
       </c>
       <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -3845,7 +3726,6 @@
         <v>0</v>
       </c>
       <c r="H116" t="inlineStr"/>
-      <c r="I116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -3874,7 +3754,6 @@
         <v>0</v>
       </c>
       <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -3903,7 +3782,6 @@
         <v>0</v>
       </c>
       <c r="H118" t="inlineStr"/>
-      <c r="I118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -3932,7 +3810,6 @@
         <v>0</v>
       </c>
       <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -3961,7 +3838,6 @@
         <v>0</v>
       </c>
       <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -3990,7 +3866,6 @@
         <v>0</v>
       </c>
       <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -4019,7 +3894,6 @@
         <v>0</v>
       </c>
       <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -4048,7 +3922,6 @@
         <v>0</v>
       </c>
       <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -4077,7 +3950,6 @@
         <v>0</v>
       </c>
       <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -4106,7 +3978,6 @@
         <v>0</v>
       </c>
       <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -4135,7 +4006,6 @@
         <v>0</v>
       </c>
       <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -4164,7 +4034,6 @@
         <v>0</v>
       </c>
       <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -4193,7 +4062,6 @@
         <v>0</v>
       </c>
       <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -4222,7 +4090,6 @@
         <v>0</v>
       </c>
       <c r="H129" t="inlineStr"/>
-      <c r="I129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -4251,7 +4118,6 @@
         <v>0</v>
       </c>
       <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -4280,7 +4146,6 @@
         <v>0</v>
       </c>
       <c r="H131" t="inlineStr"/>
-      <c r="I131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -4309,7 +4174,6 @@
         <v>0</v>
       </c>
       <c r="H132" t="inlineStr"/>
-      <c r="I132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -4338,7 +4202,6 @@
         <v>0</v>
       </c>
       <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -4371,7 +4234,6 @@
           <t xml:space="preserve">RET IIBB TUCUMAN </t>
         </is>
       </c>
-      <c r="I134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -4400,7 +4262,6 @@
         <v>0</v>
       </c>
       <c r="H135" t="inlineStr"/>
-      <c r="I135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -4429,7 +4290,6 @@
         <v>0</v>
       </c>
       <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -4462,7 +4322,6 @@
           <t>.</t>
         </is>
       </c>
-      <c r="I137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -4491,7 +4350,6 @@
         <v>0</v>
       </c>
       <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -4520,7 +4378,6 @@
         <v>0</v>
       </c>
       <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -4549,7 +4406,6 @@
         <v>0</v>
       </c>
       <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -4578,7 +4434,6 @@
         <v>0</v>
       </c>
       <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -4607,7 +4462,6 @@
         <v>0</v>
       </c>
       <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -4636,7 +4490,6 @@
         <v>0</v>
       </c>
       <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -4665,7 +4518,6 @@
         <v>0</v>
       </c>
       <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -4694,7 +4546,6 @@
         <v>0</v>
       </c>
       <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -4723,7 +4574,6 @@
         <v>0</v>
       </c>
       <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -4752,7 +4602,6 @@
         <v>0</v>
       </c>
       <c r="H147" t="inlineStr"/>
-      <c r="I147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -4781,7 +4630,6 @@
         <v>0</v>
       </c>
       <c r="H148" t="inlineStr"/>
-      <c r="I148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -4810,7 +4658,6 @@
         <v>0</v>
       </c>
       <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -4839,7 +4686,6 @@
         <v>0</v>
       </c>
       <c r="H150" t="inlineStr"/>
-      <c r="I150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -4864,7 +4710,6 @@
         <v>1687713.81</v>
       </c>
       <c r="H151" t="inlineStr"/>
-      <c r="I151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -4893,7 +4738,6 @@
         <v>0</v>
       </c>
       <c r="H152" t="inlineStr"/>
-      <c r="I152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -4922,7 +4766,6 @@
         <v>0</v>
       </c>
       <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -4951,7 +4794,6 @@
         <v>0</v>
       </c>
       <c r="H154" t="inlineStr"/>
-      <c r="I154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -4980,7 +4822,6 @@
         <v>0</v>
       </c>
       <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -5009,7 +4850,6 @@
         <v>0</v>
       </c>
       <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -5038,7 +4878,6 @@
         <v>0</v>
       </c>
       <c r="H157" t="inlineStr"/>
-      <c r="I157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -5067,7 +4906,6 @@
         <v>0</v>
       </c>
       <c r="H158" t="inlineStr"/>
-      <c r="I158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -5096,7 +4934,6 @@
         <v>0</v>
       </c>
       <c r="H159" t="inlineStr"/>
-      <c r="I159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -5125,7 +4962,6 @@
         <v>0</v>
       </c>
       <c r="H160" t="inlineStr"/>
-      <c r="I160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -5154,7 +4990,6 @@
         <v>0</v>
       </c>
       <c r="H161" t="inlineStr"/>
-      <c r="I161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -5183,7 +5018,6 @@
         <v>0</v>
       </c>
       <c r="H162" t="inlineStr"/>
-      <c r="I162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -5212,7 +5046,6 @@
         <v>0</v>
       </c>
       <c r="H163" t="inlineStr"/>
-      <c r="I163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -5241,7 +5074,6 @@
         <v>0</v>
       </c>
       <c r="H164" t="inlineStr"/>
-      <c r="I164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -5270,7 +5102,6 @@
         <v>0</v>
       </c>
       <c r="H165" t="inlineStr"/>
-      <c r="I165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -5299,7 +5130,6 @@
         <v>0</v>
       </c>
       <c r="H166" t="inlineStr"/>
-      <c r="I166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -5328,7 +5158,6 @@
         <v>0</v>
       </c>
       <c r="H167" t="inlineStr"/>
-      <c r="I167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -5357,7 +5186,6 @@
         <v>0</v>
       </c>
       <c r="H168" t="inlineStr"/>
-      <c r="I168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -5386,7 +5214,6 @@
         <v>0</v>
       </c>
       <c r="H169" t="inlineStr"/>
-      <c r="I169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -5415,7 +5242,6 @@
         <v>0</v>
       </c>
       <c r="H170" t="inlineStr"/>
-      <c r="I170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -5444,7 +5270,6 @@
         <v>0</v>
       </c>
       <c r="H171" t="inlineStr"/>
-      <c r="I171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -5473,7 +5298,6 @@
         <v>0</v>
       </c>
       <c r="H172" t="inlineStr"/>
-      <c r="I172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -5502,7 +5326,6 @@
         <v>0</v>
       </c>
       <c r="H173" t="inlineStr"/>
-      <c r="I173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -5531,7 +5354,6 @@
         <v>0</v>
       </c>
       <c r="H174" t="inlineStr"/>
-      <c r="I174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -5560,7 +5382,6 @@
         <v>0</v>
       </c>
       <c r="H175" t="inlineStr"/>
-      <c r="I175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -5589,7 +5410,6 @@
         <v>0</v>
       </c>
       <c r="H176" t="inlineStr"/>
-      <c r="I176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -5618,7 +5438,6 @@
         <v>0</v>
       </c>
       <c r="H177" t="inlineStr"/>
-      <c r="I177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -5647,7 +5466,6 @@
         <v>0</v>
       </c>
       <c r="H178" t="inlineStr"/>
-      <c r="I178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -5676,7 +5494,6 @@
         <v>0</v>
       </c>
       <c r="H179" t="inlineStr"/>
-      <c r="I179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -5705,7 +5522,6 @@
         <v>0</v>
       </c>
       <c r="H180" t="inlineStr"/>
-      <c r="I180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -5734,7 +5550,6 @@
         <v>0</v>
       </c>
       <c r="H181" t="inlineStr"/>
-      <c r="I181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -5763,7 +5578,6 @@
         <v>0</v>
       </c>
       <c r="H182" t="inlineStr"/>
-      <c r="I182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -5792,7 +5606,6 @@
         <v>0</v>
       </c>
       <c r="H183" t="inlineStr"/>
-      <c r="I183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -5821,7 +5634,6 @@
         <v>0</v>
       </c>
       <c r="H184" t="inlineStr"/>
-      <c r="I184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -5854,7 +5666,6 @@
           <t>IIBB TUCUMAN</t>
         </is>
       </c>
-      <c r="I185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -5883,7 +5694,6 @@
         <v>0</v>
       </c>
       <c r="H186" t="inlineStr"/>
-      <c r="I186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -5916,7 +5726,6 @@
           <t xml:space="preserve">RET IIBB TUCUMAN </t>
         </is>
       </c>
-      <c r="I187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -5945,7 +5754,6 @@
         <v>0</v>
       </c>
       <c r="H188" t="inlineStr"/>
-      <c r="I188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -5974,7 +5782,6 @@
         <v>0</v>
       </c>
       <c r="H189" t="inlineStr"/>
-      <c r="I189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -6003,7 +5810,6 @@
         <v>0</v>
       </c>
       <c r="H190" t="inlineStr"/>
-      <c r="I190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -6032,7 +5838,6 @@
         <v>0</v>
       </c>
       <c r="H191" t="inlineStr"/>
-      <c r="I191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -6061,7 +5866,6 @@
         <v>0</v>
       </c>
       <c r="H192" t="inlineStr"/>
-      <c r="I192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -6090,7 +5894,6 @@
         <v>0</v>
       </c>
       <c r="H193" t="inlineStr"/>
-      <c r="I193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -6119,7 +5922,6 @@
         <v>0</v>
       </c>
       <c r="H194" t="inlineStr"/>
-      <c r="I194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -6148,7 +5950,6 @@
         <v>0</v>
       </c>
       <c r="H195" t="inlineStr"/>
-      <c r="I195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -6177,7 +5978,6 @@
         <v>0</v>
       </c>
       <c r="H196" t="inlineStr"/>
-      <c r="I196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -6206,7 +6006,6 @@
         <v>0</v>
       </c>
       <c r="H197" t="inlineStr"/>
-      <c r="I197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -6235,7 +6034,6 @@
         <v>0</v>
       </c>
       <c r="H198" t="inlineStr"/>
-      <c r="I198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -6264,7 +6062,6 @@
         <v>0</v>
       </c>
       <c r="H199" t="inlineStr"/>
-      <c r="I199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -6293,7 +6090,6 @@
         <v>0</v>
       </c>
       <c r="H200" t="inlineStr"/>
-      <c r="I200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -6322,7 +6118,6 @@
         <v>0</v>
       </c>
       <c r="H201" t="inlineStr"/>
-      <c r="I201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -6351,7 +6146,6 @@
         <v>0</v>
       </c>
       <c r="H202" t="inlineStr"/>
-      <c r="I202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -6380,7 +6174,6 @@
         <v>0</v>
       </c>
       <c r="H203" t="inlineStr"/>
-      <c r="I203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -6409,7 +6202,6 @@
         <v>0</v>
       </c>
       <c r="H204" t="inlineStr"/>
-      <c r="I204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -6442,7 +6234,6 @@
           <t>.</t>
         </is>
       </c>
-      <c r="I205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -6471,7 +6262,6 @@
         <v>0</v>
       </c>
       <c r="H206" t="inlineStr"/>
-      <c r="I206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -6504,7 +6294,6 @@
           <t>RET IIBB TUCUMAN</t>
         </is>
       </c>
-      <c r="I207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -6537,7 +6326,6 @@
           <t>IIBB TUCUMAN</t>
         </is>
       </c>
-      <c r="I208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -6566,7 +6354,6 @@
         <v>0</v>
       </c>
       <c r="H209" t="inlineStr"/>
-      <c r="I209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -6595,7 +6382,6 @@
         <v>0</v>
       </c>
       <c r="H210" t="inlineStr"/>
-      <c r="I210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -6628,7 +6414,6 @@
           <t xml:space="preserve">RET IIBB TUCUMAN </t>
         </is>
       </c>
-      <c r="I211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -6657,7 +6442,6 @@
         <v>0</v>
       </c>
       <c r="H212" t="inlineStr"/>
-      <c r="I212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -6686,7 +6470,6 @@
         <v>0</v>
       </c>
       <c r="H213" t="inlineStr"/>
-      <c r="I213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -6719,7 +6502,6 @@
           <t>IIBB TUCUMAN</t>
         </is>
       </c>
-      <c r="I214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -6748,7 +6530,6 @@
         <v>0</v>
       </c>
       <c r="H215" t="inlineStr"/>
-      <c r="I215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -6777,7 +6558,6 @@
         <v>0</v>
       </c>
       <c r="H216" t="inlineStr"/>
-      <c r="I216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -6806,7 +6586,6 @@
         <v>0</v>
       </c>
       <c r="H217" t="inlineStr"/>
-      <c r="I217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -6835,7 +6614,6 @@
         <v>0</v>
       </c>
       <c r="H218" t="inlineStr"/>
-      <c r="I218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -6864,7 +6642,6 @@
         <v>0</v>
       </c>
       <c r="H219" t="inlineStr"/>
-      <c r="I219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -6889,7 +6666,6 @@
         <v>774934.4300000001</v>
       </c>
       <c r="H220" t="inlineStr"/>
-      <c r="I220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -6918,7 +6694,6 @@
         <v>0</v>
       </c>
       <c r="H221" t="inlineStr"/>
-      <c r="I221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -6947,7 +6722,6 @@
         <v>0</v>
       </c>
       <c r="H222" t="inlineStr"/>
-      <c r="I222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -6976,7 +6750,6 @@
         <v>0</v>
       </c>
       <c r="H223" t="inlineStr"/>
-      <c r="I223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -7005,7 +6778,6 @@
         <v>0</v>
       </c>
       <c r="H224" t="inlineStr"/>
-      <c r="I224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -7034,7 +6806,6 @@
         <v>0</v>
       </c>
       <c r="H225" t="inlineStr"/>
-      <c r="I225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -7063,7 +6834,6 @@
         <v>0</v>
       </c>
       <c r="H226" t="inlineStr"/>
-      <c r="I226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -7092,7 +6862,6 @@
         <v>0</v>
       </c>
       <c r="H227" t="inlineStr"/>
-      <c r="I227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -7121,7 +6890,6 @@
         <v>0</v>
       </c>
       <c r="H228" t="inlineStr"/>
-      <c r="I228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -7150,7 +6918,6 @@
         <v>0</v>
       </c>
       <c r="H229" t="inlineStr"/>
-      <c r="I229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -7179,7 +6946,6 @@
         <v>0</v>
       </c>
       <c r="H230" t="inlineStr"/>
-      <c r="I230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -7208,7 +6974,6 @@
         <v>0</v>
       </c>
       <c r="H231" t="inlineStr"/>
-      <c r="I231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -7237,7 +7002,6 @@
         <v>0</v>
       </c>
       <c r="H232" t="inlineStr"/>
-      <c r="I232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -7266,7 +7030,6 @@
         <v>0</v>
       </c>
       <c r="H233" t="inlineStr"/>
-      <c r="I233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -7295,7 +7058,6 @@
         <v>0</v>
       </c>
       <c r="H234" t="inlineStr"/>
-      <c r="I234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -7324,7 +7086,6 @@
         <v>0</v>
       </c>
       <c r="H235" t="inlineStr"/>
-      <c r="I235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -7353,7 +7114,6 @@
         <v>0</v>
       </c>
       <c r="H236" t="inlineStr"/>
-      <c r="I236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -7382,7 +7142,6 @@
         <v>0</v>
       </c>
       <c r="H237" t="inlineStr"/>
-      <c r="I237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -7411,7 +7170,6 @@
         <v>0</v>
       </c>
       <c r="H238" t="inlineStr"/>
-      <c r="I238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -7440,7 +7198,6 @@
         <v>0</v>
       </c>
       <c r="H239" t="inlineStr"/>
-      <c r="I239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -7469,7 +7226,6 @@
         <v>0</v>
       </c>
       <c r="H240" t="inlineStr"/>
-      <c r="I240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -7498,7 +7254,6 @@
         <v>0</v>
       </c>
       <c r="H241" t="inlineStr"/>
-      <c r="I241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -7527,7 +7282,6 @@
         <v>0</v>
       </c>
       <c r="H242" t="inlineStr"/>
-      <c r="I242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -7556,7 +7310,6 @@
         <v>0</v>
       </c>
       <c r="H243" t="inlineStr"/>
-      <c r="I243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -7585,7 +7338,6 @@
         <v>0</v>
       </c>
       <c r="H244" t="inlineStr"/>
-      <c r="I244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -7614,7 +7366,6 @@
         <v>0</v>
       </c>
       <c r="H245" t="inlineStr"/>
-      <c r="I245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -7643,7 +7394,6 @@
         <v>0</v>
       </c>
       <c r="H246" t="inlineStr"/>
-      <c r="I246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -7672,7 +7422,6 @@
         <v>0</v>
       </c>
       <c r="H247" t="inlineStr"/>
-      <c r="I247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -7701,7 +7450,6 @@
         <v>0</v>
       </c>
       <c r="H248" t="inlineStr"/>
-      <c r="I248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -7730,7 +7478,6 @@
         <v>0</v>
       </c>
       <c r="H249" t="inlineStr"/>
-      <c r="I249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -7759,7 +7506,6 @@
         <v>0</v>
       </c>
       <c r="H250" t="inlineStr"/>
-      <c r="I250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -7788,7 +7534,6 @@
         <v>0</v>
       </c>
       <c r="H251" t="inlineStr"/>
-      <c r="I251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -7817,7 +7562,6 @@
         <v>0</v>
       </c>
       <c r="H252" t="inlineStr"/>
-      <c r="I252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -7846,7 +7590,6 @@
         <v>0</v>
       </c>
       <c r="H253" t="inlineStr"/>
-      <c r="I253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -7875,7 +7618,6 @@
         <v>0</v>
       </c>
       <c r="H254" t="inlineStr"/>
-      <c r="I254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -7904,7 +7646,6 @@
         <v>0</v>
       </c>
       <c r="H255" t="inlineStr"/>
-      <c r="I255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -7933,7 +7674,6 @@
         <v>0</v>
       </c>
       <c r="H256" t="inlineStr"/>
-      <c r="I256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -7962,7 +7702,6 @@
         <v>0</v>
       </c>
       <c r="H257" t="inlineStr"/>
-      <c r="I257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -7991,7 +7730,6 @@
         <v>0</v>
       </c>
       <c r="H258" t="inlineStr"/>
-      <c r="I258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -8020,7 +7758,6 @@
         <v>0</v>
       </c>
       <c r="H259" t="inlineStr"/>
-      <c r="I259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -8049,7 +7786,6 @@
         <v>0</v>
       </c>
       <c r="H260" t="inlineStr"/>
-      <c r="I260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -8078,7 +7814,6 @@
         <v>0</v>
       </c>
       <c r="H261" t="inlineStr"/>
-      <c r="I261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -8107,7 +7842,6 @@
         <v>0</v>
       </c>
       <c r="H262" t="inlineStr"/>
-      <c r="I262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -8136,7 +7870,6 @@
         <v>0</v>
       </c>
       <c r="H263" t="inlineStr"/>
-      <c r="I263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -8165,7 +7898,6 @@
         <v>0</v>
       </c>
       <c r="H264" t="inlineStr"/>
-      <c r="I264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -8194,7 +7926,6 @@
         <v>0</v>
       </c>
       <c r="H265" t="inlineStr"/>
-      <c r="I265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -8223,7 +7954,6 @@
         <v>0</v>
       </c>
       <c r="H266" t="inlineStr"/>
-      <c r="I266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -8252,7 +7982,6 @@
         <v>0</v>
       </c>
       <c r="H267" t="inlineStr"/>
-      <c r="I267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -8281,7 +8010,6 @@
         <v>0</v>
       </c>
       <c r="H268" t="inlineStr"/>
-      <c r="I268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -8310,7 +8038,6 @@
         <v>0</v>
       </c>
       <c r="H269" t="inlineStr"/>
-      <c r="I269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -8339,7 +8066,6 @@
         <v>0</v>
       </c>
       <c r="H270" t="inlineStr"/>
-      <c r="I270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -8368,7 +8094,6 @@
         <v>0</v>
       </c>
       <c r="H271" t="inlineStr"/>
-      <c r="I271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -8397,7 +8122,6 @@
         <v>0</v>
       </c>
       <c r="H272" t="inlineStr"/>
-      <c r="I272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -8426,7 +8150,6 @@
         <v>0</v>
       </c>
       <c r="H273" t="inlineStr"/>
-      <c r="I273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -8455,7 +8178,6 @@
         <v>0</v>
       </c>
       <c r="H274" t="inlineStr"/>
-      <c r="I274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -8484,7 +8206,6 @@
         <v>0</v>
       </c>
       <c r="H275" t="inlineStr"/>
-      <c r="I275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -8513,7 +8234,6 @@
         <v>0</v>
       </c>
       <c r="H276" t="inlineStr"/>
-      <c r="I276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -8546,7 +8266,6 @@
           <t>RET IIBB TUCUMAN</t>
         </is>
       </c>
-      <c r="I277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -8575,7 +8294,6 @@
         <v>0</v>
       </c>
       <c r="H278" t="inlineStr"/>
-      <c r="I278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -8604,7 +8322,6 @@
         <v>0</v>
       </c>
       <c r="H279" t="inlineStr"/>
-      <c r="I279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -8633,7 +8350,6 @@
         <v>0</v>
       </c>
       <c r="H280" t="inlineStr"/>
-      <c r="I280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -8662,7 +8378,6 @@
         <v>0</v>
       </c>
       <c r="H281" t="inlineStr"/>
-      <c r="I281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -8691,7 +8406,6 @@
         <v>0</v>
       </c>
       <c r="H282" t="inlineStr"/>
-      <c r="I282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -8720,7 +8434,6 @@
         <v>0</v>
       </c>
       <c r="H283" t="inlineStr"/>
-      <c r="I283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -8749,7 +8462,6 @@
         <v>0</v>
       </c>
       <c r="H284" t="inlineStr"/>
-      <c r="I284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -8778,7 +8490,6 @@
         <v>0</v>
       </c>
       <c r="H285" t="inlineStr"/>
-      <c r="I285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -8807,7 +8518,6 @@
         <v>0</v>
       </c>
       <c r="H286" t="inlineStr"/>
-      <c r="I286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -8836,7 +8546,6 @@
         <v>0</v>
       </c>
       <c r="H287" t="inlineStr"/>
-      <c r="I287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -8865,7 +8574,6 @@
         <v>0</v>
       </c>
       <c r="H288" t="inlineStr"/>
-      <c r="I288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -8894,7 +8602,6 @@
         <v>0</v>
       </c>
       <c r="H289" t="inlineStr"/>
-      <c r="I289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -8923,7 +8630,6 @@
         <v>0</v>
       </c>
       <c r="H290" t="inlineStr"/>
-      <c r="I290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -8952,7 +8658,6 @@
         <v>0</v>
       </c>
       <c r="H291" t="inlineStr"/>
-      <c r="I291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -8981,7 +8686,6 @@
         <v>0</v>
       </c>
       <c r="H292" t="inlineStr"/>
-      <c r="I292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -9010,7 +8714,6 @@
         <v>0</v>
       </c>
       <c r="H293" t="inlineStr"/>
-      <c r="I293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -9035,7 +8738,6 @@
         <v>129445.2</v>
       </c>
       <c r="H294" t="inlineStr"/>
-      <c r="I294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -9060,7 +8762,6 @@
         <v>10</v>
       </c>
       <c r="H295" t="inlineStr"/>
-      <c r="I295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -9089,7 +8790,6 @@
         <v>0</v>
       </c>
       <c r="H296" t="inlineStr"/>
-      <c r="I296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -9118,7 +8818,6 @@
         <v>0</v>
       </c>
       <c r="H297" t="inlineStr"/>
-      <c r="I297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -9147,7 +8846,6 @@
         <v>0</v>
       </c>
       <c r="H298" t="inlineStr"/>
-      <c r="I298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -9176,7 +8874,6 @@
         <v>0</v>
       </c>
       <c r="H299" t="inlineStr"/>
-      <c r="I299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -9205,7 +8902,6 @@
         <v>0</v>
       </c>
       <c r="H300" t="inlineStr"/>
-      <c r="I300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -9234,7 +8930,6 @@
         <v>0</v>
       </c>
       <c r="H301" t="inlineStr"/>
-      <c r="I301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -9263,7 +8958,6 @@
         <v>0</v>
       </c>
       <c r="H302" t="inlineStr"/>
-      <c r="I302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -9292,7 +8986,6 @@
         <v>0</v>
       </c>
       <c r="H303" t="inlineStr"/>
-      <c r="I303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -9321,7 +9014,6 @@
         <v>0</v>
       </c>
       <c r="H304" t="inlineStr"/>
-      <c r="I304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -9350,7 +9042,6 @@
         <v>0</v>
       </c>
       <c r="H305" t="inlineStr"/>
-      <c r="I305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -9383,7 +9074,6 @@
           <t>.</t>
         </is>
       </c>
-      <c r="I306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -9412,7 +9102,6 @@
         <v>0</v>
       </c>
       <c r="H307" t="inlineStr"/>
-      <c r="I307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -9441,7 +9130,6 @@
         <v>0</v>
       </c>
       <c r="H308" t="inlineStr"/>
-      <c r="I308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -9470,7 +9158,6 @@
         <v>0</v>
       </c>
       <c r="H309" t="inlineStr"/>
-      <c r="I309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -9499,7 +9186,6 @@
         <v>0</v>
       </c>
       <c r="H310" t="inlineStr"/>
-      <c r="I310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -9528,7 +9214,6 @@
         <v>0</v>
       </c>
       <c r="H311" t="inlineStr"/>
-      <c r="I311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -9557,7 +9242,6 @@
         <v>0</v>
       </c>
       <c r="H312" t="inlineStr"/>
-      <c r="I312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -9586,7 +9270,6 @@
         <v>0</v>
       </c>
       <c r="H313" t="inlineStr"/>
-      <c r="I313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -9615,7 +9298,6 @@
         <v>0</v>
       </c>
       <c r="H314" t="inlineStr"/>
-      <c r="I314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -9644,7 +9326,6 @@
         <v>0</v>
       </c>
       <c r="H315" t="inlineStr"/>
-      <c r="I315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -9673,7 +9354,6 @@
         <v>0</v>
       </c>
       <c r="H316" t="inlineStr"/>
-      <c r="I316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -9702,7 +9382,6 @@
         <v>0</v>
       </c>
       <c r="H317" t="inlineStr"/>
-      <c r="I317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -9731,7 +9410,6 @@
         <v>0</v>
       </c>
       <c r="H318" t="inlineStr"/>
-      <c r="I318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -9760,7 +9438,6 @@
         <v>0</v>
       </c>
       <c r="H319" t="inlineStr"/>
-      <c r="I319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -9789,7 +9466,6 @@
         <v>0</v>
       </c>
       <c r="H320" t="inlineStr"/>
-      <c r="I320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -9818,7 +9494,6 @@
         <v>0</v>
       </c>
       <c r="H321" t="inlineStr"/>
-      <c r="I321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -9847,7 +9522,6 @@
         <v>0</v>
       </c>
       <c r="H322" t="inlineStr"/>
-      <c r="I322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -9876,7 +9550,6 @@
         <v>0</v>
       </c>
       <c r="H323" t="inlineStr"/>
-      <c r="I323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -9905,7 +9578,6 @@
         <v>0</v>
       </c>
       <c r="H324" t="inlineStr"/>
-      <c r="I324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -9934,7 +9606,6 @@
         <v>0</v>
       </c>
       <c r="H325" t="inlineStr"/>
-      <c r="I325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -9963,7 +9634,6 @@
         <v>0</v>
       </c>
       <c r="H326" t="inlineStr"/>
-      <c r="I326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -9992,7 +9662,6 @@
         <v>0</v>
       </c>
       <c r="H327" t="inlineStr"/>
-      <c r="I327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -10021,7 +9690,6 @@
         <v>0</v>
       </c>
       <c r="H328" t="inlineStr"/>
-      <c r="I328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -10050,7 +9718,6 @@
         <v>0</v>
       </c>
       <c r="H329" t="inlineStr"/>
-      <c r="I329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -10079,7 +9746,6 @@
         <v>0</v>
       </c>
       <c r="H330" t="inlineStr"/>
-      <c r="I330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -10108,7 +9774,6 @@
         <v>0</v>
       </c>
       <c r="H331" t="inlineStr"/>
-      <c r="I331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -10137,7 +9802,6 @@
         <v>0</v>
       </c>
       <c r="H332" t="inlineStr"/>
-      <c r="I332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -10166,7 +9830,6 @@
         <v>0</v>
       </c>
       <c r="H333" t="inlineStr"/>
-      <c r="I333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -10195,7 +9858,6 @@
         <v>0</v>
       </c>
       <c r="H334" t="inlineStr"/>
-      <c r="I334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -10224,7 +9886,6 @@
         <v>0</v>
       </c>
       <c r="H335" t="inlineStr"/>
-      <c r="I335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -10253,7 +9914,6 @@
         <v>0</v>
       </c>
       <c r="H336" t="inlineStr"/>
-      <c r="I336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -10278,7 +9938,6 @@
         <v>1027317.25</v>
       </c>
       <c r="H337" t="inlineStr"/>
-      <c r="I337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -10307,7 +9966,6 @@
         <v>0</v>
       </c>
       <c r="H338" t="inlineStr"/>
-      <c r="I338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -10336,7 +9994,6 @@
         <v>0</v>
       </c>
       <c r="H339" t="inlineStr"/>
-      <c r="I339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -10365,7 +10022,6 @@
         <v>0</v>
       </c>
       <c r="H340" t="inlineStr"/>
-      <c r="I340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -10394,7 +10050,6 @@
         <v>0</v>
       </c>
       <c r="H341" t="inlineStr"/>
-      <c r="I341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -10423,7 +10078,6 @@
         <v>0</v>
       </c>
       <c r="H342" t="inlineStr"/>
-      <c r="I342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -10452,7 +10106,6 @@
         <v>0</v>
       </c>
       <c r="H343" t="inlineStr"/>
-      <c r="I343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -10481,7 +10134,6 @@
         <v>0</v>
       </c>
       <c r="H344" t="inlineStr"/>
-      <c r="I344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -10510,7 +10162,6 @@
         <v>0</v>
       </c>
       <c r="H345" t="inlineStr"/>
-      <c r="I345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -10539,7 +10190,6 @@
         <v>0</v>
       </c>
       <c r="H346" t="inlineStr"/>
-      <c r="I346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -10568,7 +10218,6 @@
         <v>0</v>
       </c>
       <c r="H347" t="inlineStr"/>
-      <c r="I347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -10597,7 +10246,6 @@
         <v>0</v>
       </c>
       <c r="H348" t="inlineStr"/>
-      <c r="I348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -10626,7 +10274,6 @@
         <v>52.67</v>
       </c>
       <c r="H349" t="inlineStr"/>
-      <c r="I349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -10655,7 +10302,6 @@
         <v>0</v>
       </c>
       <c r="H350" t="inlineStr"/>
-      <c r="I350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -10684,7 +10330,6 @@
         <v>0</v>
       </c>
       <c r="H351" t="inlineStr"/>
-      <c r="I351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -10713,7 +10358,6 @@
         <v>0</v>
       </c>
       <c r="H352" t="inlineStr"/>
-      <c r="I352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -10742,7 +10386,6 @@
         <v>0</v>
       </c>
       <c r="H353" t="inlineStr"/>
-      <c r="I353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -10771,7 +10414,6 @@
         <v>0</v>
       </c>
       <c r="H354" t="inlineStr"/>
-      <c r="I354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -10800,7 +10442,6 @@
         <v>0</v>
       </c>
       <c r="H355" t="inlineStr"/>
-      <c r="I355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -10829,7 +10470,6 @@
         <v>0</v>
       </c>
       <c r="H356" t="inlineStr"/>
-      <c r="I356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -10862,7 +10502,6 @@
           <t xml:space="preserve">IIBB TUCUMAN </t>
         </is>
       </c>
-      <c r="I357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -10891,7 +10530,6 @@
         <v>0</v>
       </c>
       <c r="H358" t="inlineStr"/>
-      <c r="I358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -10920,7 +10558,6 @@
         <v>0</v>
       </c>
       <c r="H359" t="inlineStr"/>
-      <c r="I359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -10949,7 +10586,6 @@
         <v>0</v>
       </c>
       <c r="H360" t="inlineStr"/>
-      <c r="I360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -10982,7 +10618,6 @@
           <t xml:space="preserve">IIBB TUCUMAN </t>
         </is>
       </c>
-      <c r="I361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -11011,7 +10646,6 @@
         <v>0</v>
       </c>
       <c r="H362" t="inlineStr"/>
-      <c r="I362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -11040,7 +10674,6 @@
         <v>0</v>
       </c>
       <c r="H363" t="inlineStr"/>
-      <c r="I363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -11069,7 +10702,6 @@
         <v>0</v>
       </c>
       <c r="H364" t="inlineStr"/>
-      <c r="I364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -11098,7 +10730,6 @@
         <v>0</v>
       </c>
       <c r="H365" t="inlineStr"/>
-      <c r="I365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -11127,7 +10758,6 @@
         <v>0</v>
       </c>
       <c r="H366" t="inlineStr"/>
-      <c r="I366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -11160,7 +10790,6 @@
           <t>RET IIBB TUCUMAN</t>
         </is>
       </c>
-      <c r="I367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -11189,7 +10818,6 @@
         <v>0</v>
       </c>
       <c r="H368" t="inlineStr"/>
-      <c r="I368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -11218,7 +10846,6 @@
         <v>0</v>
       </c>
       <c r="H369" t="inlineStr"/>
-      <c r="I369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -11251,7 +10878,6 @@
           <t>.</t>
         </is>
       </c>
-      <c r="I370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -11280,7 +10906,6 @@
         <v>0</v>
       </c>
       <c r="H371" t="inlineStr"/>
-      <c r="I371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -11309,7 +10934,6 @@
         <v>0</v>
       </c>
       <c r="H372" t="inlineStr"/>
-      <c r="I372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -11342,7 +10966,6 @@
           <t>RET IIBB TUCUMAN</t>
         </is>
       </c>
-      <c r="I373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -11371,7 +10994,6 @@
         <v>0</v>
       </c>
       <c r="H374" t="inlineStr"/>
-      <c r="I374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -11400,7 +11022,6 @@
         <v>0</v>
       </c>
       <c r="H375" t="inlineStr"/>
-      <c r="I375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -11433,7 +11054,6 @@
           <t>RET IIBB TUCUMAN</t>
         </is>
       </c>
-      <c r="I376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -11462,7 +11082,6 @@
         <v>0</v>
       </c>
       <c r="H377" t="inlineStr"/>
-      <c r="I377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -11491,7 +11110,6 @@
         <v>0</v>
       </c>
       <c r="H378" t="inlineStr"/>
-      <c r="I378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -11520,7 +11138,6 @@
         <v>0</v>
       </c>
       <c r="H379" t="inlineStr"/>
-      <c r="I379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -11549,7 +11166,6 @@
         <v>0</v>
       </c>
       <c r="H380" t="inlineStr"/>
-      <c r="I380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -11578,7 +11194,6 @@
         <v>0</v>
       </c>
       <c r="H381" t="inlineStr"/>
-      <c r="I381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -11607,7 +11222,6 @@
         <v>0</v>
       </c>
       <c r="H382" t="inlineStr"/>
-      <c r="I382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -11640,7 +11254,6 @@
           <t>RET IIBB TUCUMAN</t>
         </is>
       </c>
-      <c r="I383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -11669,7 +11282,6 @@
         <v>0</v>
       </c>
       <c r="H384" t="inlineStr"/>
-      <c r="I384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -11698,7 +11310,6 @@
         <v>0</v>
       </c>
       <c r="H385" t="inlineStr"/>
-      <c r="I385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -11727,7 +11338,6 @@
         <v>0</v>
       </c>
       <c r="H386" t="inlineStr"/>
-      <c r="I386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -11752,7 +11362,6 @@
         <v>329117.92</v>
       </c>
       <c r="H387" t="inlineStr"/>
-      <c r="I387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -11781,7 +11390,6 @@
         <v>0</v>
       </c>
       <c r="H388" t="inlineStr"/>
-      <c r="I388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -11810,7 +11418,6 @@
         <v>0</v>
       </c>
       <c r="H389" t="inlineStr"/>
-      <c r="I389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -11839,7 +11446,6 @@
         <v>0</v>
       </c>
       <c r="H390" t="inlineStr"/>
-      <c r="I390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -11868,7 +11474,6 @@
         <v>0</v>
       </c>
       <c r="H391" t="inlineStr"/>
-      <c r="I391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -11897,7 +11502,6 @@
         <v>0</v>
       </c>
       <c r="H392" t="inlineStr"/>
-      <c r="I392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -11926,7 +11530,6 @@
         <v>0</v>
       </c>
       <c r="H393" t="inlineStr"/>
-      <c r="I393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -11955,7 +11558,6 @@
         <v>0</v>
       </c>
       <c r="H394" t="inlineStr"/>
-      <c r="I394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -11984,7 +11586,6 @@
         <v>0</v>
       </c>
       <c r="H395" t="inlineStr"/>
-      <c r="I395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -12013,7 +11614,6 @@
         <v>0</v>
       </c>
       <c r="H396" t="inlineStr"/>
-      <c r="I396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -12042,7 +11642,6 @@
         <v>0</v>
       </c>
       <c r="H397" t="inlineStr"/>
-      <c r="I397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -12071,7 +11670,6 @@
         <v>0</v>
       </c>
       <c r="H398" t="inlineStr"/>
-      <c r="I398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -12100,7 +11698,6 @@
         <v>0</v>
       </c>
       <c r="H399" t="inlineStr"/>
-      <c r="I399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -12129,7 +11726,6 @@
         <v>0</v>
       </c>
       <c r="H400" t="inlineStr"/>
-      <c r="I400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -12158,7 +11754,6 @@
         <v>0</v>
       </c>
       <c r="H401" t="inlineStr"/>
-      <c r="I401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -12187,7 +11782,6 @@
         <v>0</v>
       </c>
       <c r="H402" t="inlineStr"/>
-      <c r="I402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -12216,7 +11810,6 @@
         <v>0</v>
       </c>
       <c r="H403" t="inlineStr"/>
-      <c r="I403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -12245,7 +11838,6 @@
         <v>0</v>
       </c>
       <c r="H404" t="inlineStr"/>
-      <c r="I404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -12274,7 +11866,6 @@
         <v>0</v>
       </c>
       <c r="H405" t="inlineStr"/>
-      <c r="I405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -12303,7 +11894,6 @@
         <v>149.6</v>
       </c>
       <c r="H406" t="inlineStr"/>
-      <c r="I406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -12332,7 +11922,6 @@
         <v>0</v>
       </c>
       <c r="H407" t="inlineStr"/>
-      <c r="I407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -12361,7 +11950,6 @@
         <v>0</v>
       </c>
       <c r="H408" t="inlineStr"/>
-      <c r="I408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -12390,7 +11978,6 @@
         <v>0</v>
       </c>
       <c r="H409" t="inlineStr"/>
-      <c r="I409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -12419,7 +12006,6 @@
         <v>0</v>
       </c>
       <c r="H410" t="inlineStr"/>
-      <c r="I410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -12452,7 +12038,6 @@
           <t>.</t>
         </is>
       </c>
-      <c r="I411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -12485,7 +12070,6 @@
           <t>.</t>
         </is>
       </c>
-      <c r="I412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -12514,7 +12098,6 @@
         <v>0</v>
       </c>
       <c r="H413" t="inlineStr"/>
-      <c r="I413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -12543,7 +12126,6 @@
         <v>0</v>
       </c>
       <c r="H414" t="inlineStr"/>
-      <c r="I414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -12572,7 +12154,6 @@
         <v>0</v>
       </c>
       <c r="H415" t="inlineStr"/>
-      <c r="I415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -12601,7 +12182,6 @@
         <v>0</v>
       </c>
       <c r="H416" t="inlineStr"/>
-      <c r="I416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -12630,7 +12210,6 @@
         <v>0</v>
       </c>
       <c r="H417" t="inlineStr"/>
-      <c r="I417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -12659,7 +12238,6 @@
         <v>0</v>
       </c>
       <c r="H418" t="inlineStr"/>
-      <c r="I418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -12688,7 +12266,6 @@
         <v>0</v>
       </c>
       <c r="H419" t="inlineStr"/>
-      <c r="I419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -12717,7 +12294,6 @@
         <v>0</v>
       </c>
       <c r="H420" t="inlineStr"/>
-      <c r="I420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -12746,7 +12322,6 @@
         <v>0</v>
       </c>
       <c r="H421" t="inlineStr"/>
-      <c r="I421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -12775,7 +12350,6 @@
         <v>0</v>
       </c>
       <c r="H422" t="inlineStr"/>
-      <c r="I422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -12804,7 +12378,6 @@
         <v>0</v>
       </c>
       <c r="H423" t="inlineStr"/>
-      <c r="I423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -12833,7 +12406,6 @@
         <v>0</v>
       </c>
       <c r="H424" t="inlineStr"/>
-      <c r="I424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -12862,7 +12434,6 @@
         <v>0</v>
       </c>
       <c r="H425" t="inlineStr"/>
-      <c r="I425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -12891,7 +12462,6 @@
         <v>0</v>
       </c>
       <c r="H426" t="inlineStr"/>
-      <c r="I426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -12920,7 +12490,6 @@
         <v>0</v>
       </c>
       <c r="H427" t="inlineStr"/>
-      <c r="I427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -12949,7 +12518,6 @@
         <v>0</v>
       </c>
       <c r="H428" t="inlineStr"/>
-      <c r="I428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -12982,7 +12550,6 @@
           <t>RET IIBB TUCUMAN</t>
         </is>
       </c>
-      <c r="I429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -13011,7 +12578,6 @@
         <v>0</v>
       </c>
       <c r="H430" t="inlineStr"/>
-      <c r="I430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -13040,7 +12606,6 @@
         <v>0</v>
       </c>
       <c r="H431" t="inlineStr"/>
-      <c r="I431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -13069,7 +12634,6 @@
         <v>0</v>
       </c>
       <c r="H432" t="inlineStr"/>
-      <c r="I432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -13098,7 +12662,6 @@
         <v>0</v>
       </c>
       <c r="H433" t="inlineStr"/>
-      <c r="I433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -13127,7 +12690,6 @@
         <v>0</v>
       </c>
       <c r="H434" t="inlineStr"/>
-      <c r="I434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -13156,7 +12718,6 @@
         <v>0</v>
       </c>
       <c r="H435" t="inlineStr"/>
-      <c r="I435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -13185,7 +12746,6 @@
         <v>0</v>
       </c>
       <c r="H436" t="inlineStr"/>
-      <c r="I436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -13214,7 +12774,6 @@
         <v>0</v>
       </c>
       <c r="H437" t="inlineStr"/>
-      <c r="I437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -13243,7 +12802,6 @@
         <v>0</v>
       </c>
       <c r="H438" t="inlineStr"/>
-      <c r="I438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -13272,7 +12830,6 @@
         <v>0</v>
       </c>
       <c r="H439" t="inlineStr"/>
-      <c r="I439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -13301,7 +12858,6 @@
         <v>0</v>
       </c>
       <c r="H440" t="inlineStr"/>
-      <c r="I440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -13330,7 +12886,6 @@
         <v>0</v>
       </c>
       <c r="H441" t="inlineStr"/>
-      <c r="I441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -13359,7 +12914,6 @@
         <v>0</v>
       </c>
       <c r="H442" t="inlineStr"/>
-      <c r="I442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -13388,7 +12942,6 @@
         <v>0</v>
       </c>
       <c r="H443" t="inlineStr"/>
-      <c r="I443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -13417,7 +12970,6 @@
         <v>827.63</v>
       </c>
       <c r="H444" t="inlineStr"/>
-      <c r="I444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -13446,7 +12998,6 @@
         <v>0</v>
       </c>
       <c r="H445" t="inlineStr"/>
-      <c r="I445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -13475,7 +13026,6 @@
         <v>0</v>
       </c>
       <c r="H446" t="inlineStr"/>
-      <c r="I446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -13504,7 +13054,6 @@
         <v>0</v>
       </c>
       <c r="H447" t="inlineStr"/>
-      <c r="I447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -13533,7 +13082,6 @@
         <v>0</v>
       </c>
       <c r="H448" t="inlineStr"/>
-      <c r="I448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -13562,7 +13110,6 @@
         <v>0</v>
       </c>
       <c r="H449" t="inlineStr"/>
-      <c r="I449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -13591,7 +13138,6 @@
         <v>0</v>
       </c>
       <c r="H450" t="inlineStr"/>
-      <c r="I450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -13620,7 +13166,6 @@
         <v>0</v>
       </c>
       <c r="H451" t="inlineStr"/>
-      <c r="I451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -13653,7 +13198,6 @@
           <t xml:space="preserve">RET IIBB TUCUMAN </t>
         </is>
       </c>
-      <c r="I452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -13686,7 +13230,6 @@
           <t>RET IIBB TUCUMAN</t>
         </is>
       </c>
-      <c r="I453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -13715,7 +13258,6 @@
         <v>0</v>
       </c>
       <c r="H454" t="inlineStr"/>
-      <c r="I454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -13744,7 +13286,6 @@
         <v>0</v>
       </c>
       <c r="H455" t="inlineStr"/>
-      <c r="I455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -13769,7 +13310,6 @@
         <v>860228.15</v>
       </c>
       <c r="H456" t="inlineStr"/>
-      <c r="I456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -13798,7 +13338,6 @@
         <v>0</v>
       </c>
       <c r="H457" t="inlineStr"/>
-      <c r="I457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -13827,7 +13366,6 @@
         <v>0</v>
       </c>
       <c r="H458" t="inlineStr"/>
-      <c r="I458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -13860,7 +13398,6 @@
           <t>.</t>
         </is>
       </c>
-      <c r="I459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -13889,7 +13426,6 @@
         <v>0</v>
       </c>
       <c r="H460" t="inlineStr"/>
-      <c r="I460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -13918,7 +13454,6 @@
         <v>0</v>
       </c>
       <c r="H461" t="inlineStr"/>
-      <c r="I461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -13947,7 +13482,6 @@
         <v>0</v>
       </c>
       <c r="H462" t="inlineStr"/>
-      <c r="I462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -13976,7 +13510,6 @@
         <v>0</v>
       </c>
       <c r="H463" t="inlineStr"/>
-      <c r="I463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -14005,7 +13538,6 @@
         <v>0</v>
       </c>
       <c r="H464" t="inlineStr"/>
-      <c r="I464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -14034,7 +13566,6 @@
         <v>0</v>
       </c>
       <c r="H465" t="inlineStr"/>
-      <c r="I465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -14063,7 +13594,6 @@
         <v>0</v>
       </c>
       <c r="H466" t="inlineStr"/>
-      <c r="I466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -14092,7 +13622,6 @@
         <v>0</v>
       </c>
       <c r="H467" t="inlineStr"/>
-      <c r="I467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -14121,7 +13650,6 @@
         <v>0</v>
       </c>
       <c r="H468" t="inlineStr"/>
-      <c r="I468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -14150,7 +13678,6 @@
         <v>0</v>
       </c>
       <c r="H469" t="inlineStr"/>
-      <c r="I469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -14183,7 +13710,6 @@
           <t>RET IIBB TUCUMAN</t>
         </is>
       </c>
-      <c r="I470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -14212,7 +13738,6 @@
         <v>0</v>
       </c>
       <c r="H471" t="inlineStr"/>
-      <c r="I471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -14241,7 +13766,6 @@
         <v>0</v>
       </c>
       <c r="H472" t="inlineStr"/>
-      <c r="I472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -14270,7 +13794,6 @@
         <v>0</v>
       </c>
       <c r="H473" t="inlineStr"/>
-      <c r="I473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -14299,7 +13822,6 @@
         <v>0</v>
       </c>
       <c r="H474" t="inlineStr"/>
-      <c r="I474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -14328,7 +13850,6 @@
         <v>0</v>
       </c>
       <c r="H475" t="inlineStr"/>
-      <c r="I475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -14357,7 +13878,6 @@
         <v>0</v>
       </c>
       <c r="H476" t="inlineStr"/>
-      <c r="I476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -14386,7 +13906,6 @@
         <v>0</v>
       </c>
       <c r="H477" t="inlineStr"/>
-      <c r="I477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -14415,7 +13934,6 @@
         <v>0</v>
       </c>
       <c r="H478" t="inlineStr"/>
-      <c r="I478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -14444,7 +13962,6 @@
         <v>0</v>
       </c>
       <c r="H479" t="inlineStr"/>
-      <c r="I479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -14473,7 +13990,6 @@
         <v>0</v>
       </c>
       <c r="H480" t="inlineStr"/>
-      <c r="I480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -14502,7 +14018,6 @@
         <v>0</v>
       </c>
       <c r="H481" t="inlineStr"/>
-      <c r="I481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -14535,7 +14050,6 @@
           <t xml:space="preserve">RET IIBB TUCUMAN </t>
         </is>
       </c>
-      <c r="I482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -14564,7 +14078,6 @@
         <v>0</v>
       </c>
       <c r="H483" t="inlineStr"/>
-      <c r="I483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -14593,7 +14106,6 @@
         <v>0</v>
       </c>
       <c r="H484" t="inlineStr"/>
-      <c r="I484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -14622,7 +14134,6 @@
         <v>0</v>
       </c>
       <c r="H485" t="inlineStr"/>
-      <c r="I485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -14651,7 +14162,6 @@
         <v>0</v>
       </c>
       <c r="H486" t="inlineStr"/>
-      <c r="I486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -14680,7 +14190,6 @@
         <v>0</v>
       </c>
       <c r="H487" t="inlineStr"/>
-      <c r="I487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -14709,7 +14218,6 @@
         <v>0</v>
       </c>
       <c r="H488" t="inlineStr"/>
-      <c r="I488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -14738,7 +14246,6 @@
         <v>0</v>
       </c>
       <c r="H489" t="inlineStr"/>
-      <c r="I489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -14767,7 +14274,6 @@
         <v>0</v>
       </c>
       <c r="H490" t="inlineStr"/>
-      <c r="I490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -14796,7 +14302,6 @@
         <v>0</v>
       </c>
       <c r="H491" t="inlineStr"/>
-      <c r="I491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -14825,7 +14330,6 @@
         <v>0</v>
       </c>
       <c r="H492" t="inlineStr"/>
-      <c r="I492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -14854,7 +14358,6 @@
         <v>0</v>
       </c>
       <c r="H493" t="inlineStr"/>
-      <c r="I493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -14887,7 +14390,6 @@
           <t>RET IIBB TUCUMAN</t>
         </is>
       </c>
-      <c r="I494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -14920,7 +14422,6 @@
           <t>RET IIBB TUCUMAN</t>
         </is>
       </c>
-      <c r="I495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -14949,7 +14450,6 @@
         <v>0</v>
       </c>
       <c r="H496" t="inlineStr"/>
-      <c r="I496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -14978,7 +14478,6 @@
         <v>0</v>
       </c>
       <c r="H497" t="inlineStr"/>
-      <c r="I497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -15007,7 +14506,6 @@
         <v>0</v>
       </c>
       <c r="H498" t="inlineStr"/>
-      <c r="I498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -15036,7 +14534,6 @@
         <v>0</v>
       </c>
       <c r="H499" t="inlineStr"/>
-      <c r="I499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -15065,7 +14562,6 @@
         <v>0</v>
       </c>
       <c r="H500" t="inlineStr"/>
-      <c r="I500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -15094,7 +14590,6 @@
         <v>0</v>
       </c>
       <c r="H501" t="inlineStr"/>
-      <c r="I501" t="inlineStr"/>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -15123,7 +14618,6 @@
         <v>0</v>
       </c>
       <c r="H502" t="inlineStr"/>
-      <c r="I502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -15148,7 +14642,6 @@
         <v>965483.8100000001</v>
       </c>
       <c r="H503" t="inlineStr"/>
-      <c r="I503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -15177,7 +14670,6 @@
         <v>0</v>
       </c>
       <c r="H504" t="inlineStr"/>
-      <c r="I504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -15206,7 +14698,6 @@
         <v>113391.88</v>
       </c>
       <c r="H505" t="inlineStr"/>
-      <c r="I505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -15235,7 +14726,6 @@
         <v>0</v>
       </c>
       <c r="H506" t="inlineStr"/>
-      <c r="I506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -15264,7 +14754,6 @@
         <v>0</v>
       </c>
       <c r="H507" t="inlineStr"/>
-      <c r="I507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" t="n">
@@ -15293,7 +14782,6 @@
         <v>0</v>
       </c>
       <c r="H508" t="inlineStr"/>
-      <c r="I508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" t="n">
@@ -15322,7 +14810,6 @@
         <v>0</v>
       </c>
       <c r="H509" t="inlineStr"/>
-      <c r="I509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -15355,7 +14842,6 @@
           <t>.</t>
         </is>
       </c>
-      <c r="I510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" t="n">
@@ -15384,7 +14870,6 @@
         <v>0</v>
       </c>
       <c r="H511" t="inlineStr"/>
-      <c r="I511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" t="n">
@@ -15413,7 +14898,6 @@
         <v>0</v>
       </c>
       <c r="H512" t="inlineStr"/>
-      <c r="I512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" t="n">
@@ -15442,7 +14926,6 @@
         <v>0</v>
       </c>
       <c r="H513" t="inlineStr"/>
-      <c r="I513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" t="n">
@@ -15475,7 +14958,6 @@
           <t>Imputar a FA 500-992</t>
         </is>
       </c>
-      <c r="I514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" t="n">
@@ -15504,7 +14986,6 @@
         <v>0</v>
       </c>
       <c r="H515" t="inlineStr"/>
-      <c r="I515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" t="n">
@@ -15533,7 +15014,6 @@
         <v>0</v>
       </c>
       <c r="H516" t="inlineStr"/>
-      <c r="I516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" t="n">
@@ -15562,7 +15042,6 @@
         <v>0</v>
       </c>
       <c r="H517" t="inlineStr"/>
-      <c r="I517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" t="n">
@@ -15591,7 +15070,6 @@
         <v>0</v>
       </c>
       <c r="H518" t="inlineStr"/>
-      <c r="I518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" t="n">
@@ -15624,7 +15102,6 @@
           <t>VULCANIZADO DE CUBIERTA</t>
         </is>
       </c>
-      <c r="I519" t="inlineStr"/>
     </row>
     <row r="520">
       <c r="A520" t="n">
@@ -15653,7 +15130,6 @@
         <v>0</v>
       </c>
       <c r="H520" t="inlineStr"/>
-      <c r="I520" t="inlineStr"/>
     </row>
     <row r="521">
       <c r="A521" t="n">
@@ -15682,7 +15158,6 @@
         <v>0</v>
       </c>
       <c r="H521" t="inlineStr"/>
-      <c r="I521" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" t="n">
@@ -15715,7 +15190,6 @@
           <t>RETENCION IIBB TUCUMAN</t>
         </is>
       </c>
-      <c r="I522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" t="n">
@@ -15744,7 +15218,6 @@
         <v>0</v>
       </c>
       <c r="H523" t="inlineStr"/>
-      <c r="I523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" t="n">
@@ -15773,7 +15246,6 @@
         <v>0</v>
       </c>
       <c r="H524" t="inlineStr"/>
-      <c r="I524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" t="n">
@@ -15802,7 +15274,6 @@
         <v>0</v>
       </c>
       <c r="H525" t="inlineStr"/>
-      <c r="I525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" t="n">
@@ -15835,7 +15306,6 @@
           <t>.</t>
         </is>
       </c>
-      <c r="I526" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -15868,7 +15338,6 @@
           <t xml:space="preserve">RET IIBB TUCUMAN </t>
         </is>
       </c>
-      <c r="I527" t="inlineStr"/>
     </row>
     <row r="528">
       <c r="A528" t="n">
@@ -15901,7 +15370,6 @@
           <t xml:space="preserve">RET IIBB TUCUMAN </t>
         </is>
       </c>
-      <c r="I528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" t="n">
@@ -15930,7 +15398,6 @@
         <v>0</v>
       </c>
       <c r="H529" t="inlineStr"/>
-      <c r="I529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" t="n">
@@ -15959,7 +15426,6 @@
         <v>0</v>
       </c>
       <c r="H530" t="inlineStr"/>
-      <c r="I530" t="inlineStr"/>
     </row>
     <row r="531">
       <c r="A531" t="n">
@@ -15984,7 +15450,6 @@
         <v>479729.77</v>
       </c>
       <c r="H531" t="inlineStr"/>
-      <c r="I531" t="inlineStr"/>
     </row>
     <row r="532">
       <c r="A532" t="n">
@@ -16009,7 +15474,6 @@
         <v>0</v>
       </c>
       <c r="H532" t="inlineStr"/>
-      <c r="I532" t="inlineStr"/>
     </row>
     <row r="533">
       <c r="A533" t="n">
@@ -16034,7 +15498,6 @@
         <v>2207137.66</v>
       </c>
       <c r="H533" t="inlineStr"/>
-      <c r="I533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" t="n">
@@ -16063,7 +15526,6 @@
         <v>0</v>
       </c>
       <c r="H534" t="inlineStr"/>
-      <c r="I534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" t="n">
@@ -16092,7 +15554,6 @@
         <v>0</v>
       </c>
       <c r="H535" t="inlineStr"/>
-      <c r="I535" t="inlineStr"/>
     </row>
     <row r="536">
       <c r="A536" t="n">
@@ -16117,7 +15578,6 @@
         <v>0</v>
       </c>
       <c r="H536" t="inlineStr"/>
-      <c r="I536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" t="n">
@@ -16146,7 +15606,6 @@
         <v>0</v>
       </c>
       <c r="H537" t="inlineStr"/>
-      <c r="I537" t="inlineStr"/>
     </row>
     <row r="538">
       <c r="A538" t="n">
@@ -16175,7 +15634,6 @@
         <v>0</v>
       </c>
       <c r="H538" t="inlineStr"/>
-      <c r="I538" t="inlineStr"/>
     </row>
     <row r="539">
       <c r="A539" t="n">
@@ -16204,7 +15662,6 @@
         <v>0</v>
       </c>
       <c r="H539" t="inlineStr"/>
-      <c r="I539" t="inlineStr"/>
     </row>
     <row r="540">
       <c r="A540" t="n">
@@ -16233,7 +15690,6 @@
         <v>0</v>
       </c>
       <c r="H540" t="inlineStr"/>
-      <c r="I540" t="inlineStr"/>
     </row>
     <row r="541">
       <c r="A541" t="n">
@@ -16262,7 +15718,6 @@
         <v>0</v>
       </c>
       <c r="H541" t="inlineStr"/>
-      <c r="I541" t="inlineStr"/>
     </row>
     <row r="542">
       <c r="A542" t="n">
@@ -16291,7 +15746,6 @@
         <v>0</v>
       </c>
       <c r="H542" t="inlineStr"/>
-      <c r="I542" t="inlineStr"/>
     </row>
     <row r="543">
       <c r="A543" t="n">
@@ -16320,7 +15774,6 @@
         <v>0</v>
       </c>
       <c r="H543" t="inlineStr"/>
-      <c r="I543" t="inlineStr"/>
     </row>
     <row r="544">
       <c r="A544" t="n">
@@ -16349,7 +15802,6 @@
         <v>0</v>
       </c>
       <c r="H544" t="inlineStr"/>
-      <c r="I544" t="inlineStr"/>
     </row>
     <row r="545">
       <c r="A545" t="n">
@@ -16378,7 +15830,6 @@
         <v>0</v>
       </c>
       <c r="H545" t="inlineStr"/>
-      <c r="I545" t="inlineStr"/>
     </row>
     <row r="546">
       <c r="A546" t="n">
@@ -16407,7 +15858,6 @@
         <v>0</v>
       </c>
       <c r="H546" t="inlineStr"/>
-      <c r="I546" t="inlineStr"/>
     </row>
     <row r="547">
       <c r="A547" t="n">
@@ -16436,7 +15886,6 @@
         <v>0</v>
       </c>
       <c r="H547" t="inlineStr"/>
-      <c r="I547" t="inlineStr"/>
     </row>
     <row r="548">
       <c r="A548" t="n">
@@ -16465,7 +15914,6 @@
         <v>0</v>
       </c>
       <c r="H548" t="inlineStr"/>
-      <c r="I548" t="inlineStr"/>
     </row>
     <row r="549">
       <c r="A549" t="n">
@@ -16494,7 +15942,6 @@
         <v>0</v>
       </c>
       <c r="H549" t="inlineStr"/>
-      <c r="I549" t="inlineStr"/>
     </row>
     <row r="550">
       <c r="A550" t="n">
@@ -16523,7 +15970,6 @@
         <v>0</v>
       </c>
       <c r="H550" t="inlineStr"/>
-      <c r="I550" t="inlineStr"/>
     </row>
     <row r="551">
       <c r="A551" t="n">
@@ -16552,7 +15998,6 @@
         <v>0</v>
       </c>
       <c r="H551" t="inlineStr"/>
-      <c r="I551" t="inlineStr"/>
     </row>
     <row r="552">
       <c r="A552" t="n">
@@ -16581,7 +16026,6 @@
         <v>0</v>
       </c>
       <c r="H552" t="inlineStr"/>
-      <c r="I552" t="inlineStr"/>
     </row>
     <row r="553">
       <c r="A553" t="n">
@@ -16610,7 +16054,6 @@
         <v>0</v>
       </c>
       <c r="H553" t="inlineStr"/>
-      <c r="I553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" t="n">
@@ -16643,7 +16086,6 @@
           <t>.</t>
         </is>
       </c>
-      <c r="I554" t="inlineStr"/>
     </row>
     <row r="555">
       <c r="A555" t="n">
@@ -16672,7 +16114,6 @@
         <v>0</v>
       </c>
       <c r="H555" t="inlineStr"/>
-      <c r="I555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" t="n">
@@ -16701,7 +16142,6 @@
         <v>0</v>
       </c>
       <c r="H556" t="inlineStr"/>
-      <c r="I556" t="inlineStr"/>
     </row>
     <row r="557">
       <c r="A557" t="n">
@@ -16730,7 +16170,6 @@
         <v>0</v>
       </c>
       <c r="H557" t="inlineStr"/>
-      <c r="I557" t="inlineStr"/>
     </row>
     <row r="558">
       <c r="A558" t="n">
@@ -16759,7 +16198,6 @@
         <v>0</v>
       </c>
       <c r="H558" t="inlineStr"/>
-      <c r="I558" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" t="n">
@@ -16788,7 +16226,6 @@
         <v>0</v>
       </c>
       <c r="H559" t="inlineStr"/>
-      <c r="I559" t="inlineStr"/>
     </row>
     <row r="560">
       <c r="A560" t="n">
@@ -16817,7 +16254,6 @@
         <v>1209.52</v>
       </c>
       <c r="H560" t="inlineStr"/>
-      <c r="I560" t="inlineStr"/>
     </row>
     <row r="561">
       <c r="A561" t="n">
@@ -16846,7 +16282,6 @@
         <v>0</v>
       </c>
       <c r="H561" t="inlineStr"/>
-      <c r="I561" t="inlineStr"/>
     </row>
     <row r="562">
       <c r="A562" t="n">
@@ -16871,7 +16306,6 @@
         <v>764252.23</v>
       </c>
       <c r="H562" t="inlineStr"/>
-      <c r="I562" t="inlineStr"/>
     </row>
     <row r="563">
       <c r="A563" t="n">
@@ -16900,7 +16334,6 @@
         <v>0</v>
       </c>
       <c r="H563" t="inlineStr"/>
-      <c r="I563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" t="n">
@@ -16929,7 +16362,6 @@
         <v>0</v>
       </c>
       <c r="H564" t="inlineStr"/>
-      <c r="I564" t="inlineStr"/>
     </row>
     <row r="565">
       <c r="A565" t="n">
@@ -16958,7 +16390,6 @@
         <v>0</v>
       </c>
       <c r="H565" t="inlineStr"/>
-      <c r="I565" t="inlineStr"/>
     </row>
     <row r="566">
       <c r="A566" t="n">
@@ -16987,7 +16418,6 @@
         <v>0</v>
       </c>
       <c r="H566" t="inlineStr"/>
-      <c r="I566" t="inlineStr"/>
     </row>
     <row r="567">
       <c r="A567" t="n">
@@ -17016,7 +16446,6 @@
         <v>0</v>
       </c>
       <c r="H567" t="inlineStr"/>
-      <c r="I567" t="inlineStr"/>
     </row>
     <row r="568">
       <c r="A568" t="n">
@@ -17045,7 +16474,6 @@
         <v>0</v>
       </c>
       <c r="H568" t="inlineStr"/>
-      <c r="I568" t="inlineStr"/>
     </row>
     <row r="569">
       <c r="A569" t="n">
@@ -17074,7 +16502,6 @@
         <v>0</v>
       </c>
       <c r="H569" t="inlineStr"/>
-      <c r="I569" t="inlineStr"/>
     </row>
     <row r="570">
       <c r="A570" t="n">
@@ -17103,7 +16530,6 @@
         <v>0</v>
       </c>
       <c r="H570" t="inlineStr"/>
-      <c r="I570" t="inlineStr"/>
     </row>
     <row r="571">
       <c r="A571" t="n">
@@ -17136,7 +16562,6 @@
           <t>.</t>
         </is>
       </c>
-      <c r="I571" t="inlineStr"/>
     </row>
     <row r="572">
       <c r="A572" t="n">
@@ -17165,7 +16590,6 @@
         <v>0</v>
       </c>
       <c r="H572" t="inlineStr"/>
-      <c r="I572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" t="n">
@@ -17194,7 +16618,6 @@
         <v>0</v>
       </c>
       <c r="H573" t="inlineStr"/>
-      <c r="I573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" t="n">
@@ -17227,7 +16650,6 @@
           <t>RET IIBB TUCUMAN</t>
         </is>
       </c>
-      <c r="I574" t="inlineStr"/>
     </row>
     <row r="575">
       <c r="A575" t="n">
@@ -17256,7 +16678,6 @@
         <v>0</v>
       </c>
       <c r="H575" t="inlineStr"/>
-      <c r="I575" t="inlineStr"/>
     </row>
     <row r="576">
       <c r="A576" t="n">
@@ -17285,7 +16706,6 @@
         <v>0</v>
       </c>
       <c r="H576" t="inlineStr"/>
-      <c r="I576" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" t="n">
@@ -17314,7 +16734,6 @@
         <v>0</v>
       </c>
       <c r="H577" t="inlineStr"/>
-      <c r="I577" t="inlineStr"/>
     </row>
     <row r="578">
       <c r="A578" t="n">
@@ -17343,7 +16762,6 @@
         <v>0</v>
       </c>
       <c r="H578" t="inlineStr"/>
-      <c r="I578" t="inlineStr"/>
     </row>
     <row r="579">
       <c r="A579" t="n">
@@ -17376,7 +16794,6 @@
           <t>RET IIBB TUCUMAN</t>
         </is>
       </c>
-      <c r="I579" t="inlineStr"/>
     </row>
     <row r="580">
       <c r="A580" t="n">
@@ -17409,7 +16826,6 @@
           <t xml:space="preserve">Titular Vendedor LPG: 4124-UNION AGRICOLA DE AVELLANEDA COOP LTDA  \ </t>
         </is>
       </c>
-      <c r="I580" t="inlineStr"/>
     </row>
     <row r="581">
       <c r="A581" t="n">
@@ -17438,7 +16854,6 @@
         <v>0</v>
       </c>
       <c r="H581" t="inlineStr"/>
-      <c r="I581" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" t="n">
@@ -17467,7 +16882,6 @@
         <v>0</v>
       </c>
       <c r="H582" t="inlineStr"/>
-      <c r="I582" t="inlineStr"/>
     </row>
     <row r="583">
       <c r="A583" t="n">
@@ -17496,7 +16910,6 @@
         <v>0</v>
       </c>
       <c r="H583" t="inlineStr"/>
-      <c r="I583" t="inlineStr"/>
     </row>
     <row r="584">
       <c r="A584" t="n">
@@ -17529,7 +16942,6 @@
           <t xml:space="preserve">Titular Vendedor LPG: 288-COMMODITIES SA  \ </t>
         </is>
       </c>
-      <c r="I584" t="inlineStr"/>
     </row>
     <row r="585">
       <c r="A585" t="n">
@@ -17558,7 +16970,6 @@
         <v>0</v>
       </c>
       <c r="H585" t="inlineStr"/>
-      <c r="I585" t="inlineStr"/>
     </row>
     <row r="586">
       <c r="A586" t="n">
@@ -17587,7 +16998,6 @@
         <v>0</v>
       </c>
       <c r="H586" t="inlineStr"/>
-      <c r="I586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" t="n">
@@ -17616,7 +17026,6 @@
         <v>0</v>
       </c>
       <c r="H587" t="inlineStr"/>
-      <c r="I587" t="inlineStr"/>
     </row>
     <row r="588">
       <c r="A588" t="n">
@@ -17649,7 +17058,6 @@
           <t>RET IIBB TUCUMAN</t>
         </is>
       </c>
-      <c r="I588" t="inlineStr"/>
     </row>
     <row r="589">
       <c r="A589" t="n">
@@ -17678,7 +17086,6 @@
         <v>0</v>
       </c>
       <c r="H589" t="inlineStr"/>
-      <c r="I589" t="inlineStr"/>
     </row>
     <row r="590">
       <c r="A590" t="n">
@@ -17707,7 +17114,6 @@
         <v>0</v>
       </c>
       <c r="H590" t="inlineStr"/>
-      <c r="I590" t="inlineStr"/>
     </row>
     <row r="591">
       <c r="A591" t="n">
@@ -17736,7 +17142,6 @@
         <v>0</v>
       </c>
       <c r="H591" t="inlineStr"/>
-      <c r="I591" t="inlineStr"/>
     </row>
     <row r="592">
       <c r="A592" t="n">
@@ -17765,7 +17170,6 @@
         <v>0</v>
       </c>
       <c r="H592" t="inlineStr"/>
-      <c r="I592" t="inlineStr"/>
     </row>
     <row r="593">
       <c r="A593" t="n">
@@ -17794,7 +17198,6 @@
         <v>0</v>
       </c>
       <c r="H593" t="inlineStr"/>
-      <c r="I593" t="inlineStr"/>
     </row>
     <row r="594">
       <c r="A594" t="n">
@@ -17823,7 +17226,6 @@
         <v>0</v>
       </c>
       <c r="H594" t="inlineStr"/>
-      <c r="I594" t="inlineStr"/>
     </row>
     <row r="595">
       <c r="A595" t="n">
@@ -17852,7 +17254,6 @@
         <v>0</v>
       </c>
       <c r="H595" t="inlineStr"/>
-      <c r="I595" t="inlineStr"/>
     </row>
     <row r="596">
       <c r="A596" t="n">
@@ -17881,7 +17282,6 @@
         <v>0</v>
       </c>
       <c r="H596" t="inlineStr"/>
-      <c r="I596" t="inlineStr"/>
     </row>
     <row r="597">
       <c r="A597" t="n">
@@ -17910,7 +17310,6 @@
         <v>0</v>
       </c>
       <c r="H597" t="inlineStr"/>
-      <c r="I597" t="inlineStr"/>
     </row>
     <row r="598">
       <c r="A598" t="n">
@@ -17939,7 +17338,6 @@
         <v>0</v>
       </c>
       <c r="H598" t="inlineStr"/>
-      <c r="I598" t="inlineStr"/>
     </row>
     <row r="599">
       <c r="A599" t="n">
@@ -17968,7 +17366,6 @@
         <v>0</v>
       </c>
       <c r="H599" t="inlineStr"/>
-      <c r="I599" t="inlineStr"/>
     </row>
     <row r="600">
       <c r="A600" t="n">
@@ -17997,7 +17394,6 @@
         <v>0</v>
       </c>
       <c r="H600" t="inlineStr"/>
-      <c r="I600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" t="n">
@@ -18022,7 +17418,6 @@
         <v>467714.04</v>
       </c>
       <c r="H601" t="inlineStr"/>
-      <c r="I601" t="inlineStr"/>
     </row>
     <row r="602">
       <c r="A602" t="n">
@@ -18051,7 +17446,6 @@
         <v>0</v>
       </c>
       <c r="H602" t="inlineStr"/>
-      <c r="I602" t="inlineStr"/>
     </row>
     <row r="603">
       <c r="A603" t="n">
@@ -18080,7 +17474,6 @@
         <v>0</v>
       </c>
       <c r="H603" t="inlineStr"/>
-      <c r="I603" t="inlineStr"/>
     </row>
     <row r="604">
       <c r="A604" t="n">
@@ -18109,7 +17502,6 @@
         <v>0</v>
       </c>
       <c r="H604" t="inlineStr"/>
-      <c r="I604" t="inlineStr"/>
     </row>
     <row r="605">
       <c r="A605" t="n">
@@ -18142,7 +17534,6 @@
           <t xml:space="preserve">Titular Vendedor LPG: 288-COMMODITIES SA  \ </t>
         </is>
       </c>
-      <c r="I605" t="inlineStr"/>
     </row>
     <row r="606">
       <c r="A606" t="n">
@@ -18171,7 +17562,6 @@
         <v>0</v>
       </c>
       <c r="H606" t="inlineStr"/>
-      <c r="I606" t="inlineStr"/>
     </row>
     <row r="607">
       <c r="A607" t="n">
@@ -18200,7 +17590,6 @@
         <v>0</v>
       </c>
       <c r="H607" t="inlineStr"/>
-      <c r="I607" t="inlineStr"/>
     </row>
     <row r="608">
       <c r="A608" t="n">
@@ -18229,7 +17618,6 @@
         <v>0</v>
       </c>
       <c r="H608" t="inlineStr"/>
-      <c r="I608" t="inlineStr"/>
     </row>
     <row r="609">
       <c r="A609" t="n">
@@ -18258,7 +17646,6 @@
         <v>0</v>
       </c>
       <c r="H609" t="inlineStr"/>
-      <c r="I609" t="inlineStr"/>
     </row>
     <row r="610">
       <c r="A610" t="n">
@@ -18287,7 +17674,6 @@
         <v>0</v>
       </c>
       <c r="H610" t="inlineStr"/>
-      <c r="I610" t="inlineStr"/>
     </row>
     <row r="611">
       <c r="A611" t="n">
@@ -18316,7 +17702,6 @@
         <v>0</v>
       </c>
       <c r="H611" t="inlineStr"/>
-      <c r="I611" t="inlineStr"/>
     </row>
     <row r="612">
       <c r="A612" t="n">
@@ -18345,7 +17730,6 @@
         <v>0</v>
       </c>
       <c r="H612" t="inlineStr"/>
-      <c r="I612" t="inlineStr"/>
     </row>
     <row r="613">
       <c r="A613" t="n">
@@ -18374,7 +17758,6 @@
         <v>0</v>
       </c>
       <c r="H613" t="inlineStr"/>
-      <c r="I613" t="inlineStr"/>
     </row>
     <row r="614">
       <c r="A614" t="n">
@@ -18403,7 +17786,6 @@
         <v>0</v>
       </c>
       <c r="H614" t="inlineStr"/>
-      <c r="I614" t="inlineStr"/>
     </row>
     <row r="615">
       <c r="A615" t="n">
@@ -18432,7 +17814,6 @@
         <v>0</v>
       </c>
       <c r="H615" t="inlineStr"/>
-      <c r="I615" t="inlineStr"/>
     </row>
     <row r="616">
       <c r="A616" t="n">
@@ -18461,7 +17842,6 @@
         <v>0</v>
       </c>
       <c r="H616" t="inlineStr"/>
-      <c r="I616" t="inlineStr"/>
     </row>
     <row r="617">
       <c r="A617" t="n">
@@ -18490,7 +17870,6 @@
         <v>0</v>
       </c>
       <c r="H617" t="inlineStr"/>
-      <c r="I617" t="inlineStr"/>
     </row>
     <row r="618">
       <c r="A618" t="n">
@@ -18519,7 +17898,6 @@
         <v>0</v>
       </c>
       <c r="H618" t="inlineStr"/>
-      <c r="I618" t="inlineStr"/>
     </row>
     <row r="619">
       <c r="A619" t="n">
@@ -18548,7 +17926,6 @@
         <v>0</v>
       </c>
       <c r="H619" t="inlineStr"/>
-      <c r="I619" t="inlineStr"/>
     </row>
     <row r="620">
       <c r="A620" t="n">
@@ -18577,7 +17954,6 @@
         <v>0</v>
       </c>
       <c r="H620" t="inlineStr"/>
-      <c r="I620" t="inlineStr"/>
     </row>
     <row r="621">
       <c r="A621" t="n">
@@ -18606,7 +17982,6 @@
         <v>0</v>
       </c>
       <c r="H621" t="inlineStr"/>
-      <c r="I621" t="inlineStr"/>
     </row>
     <row r="622">
       <c r="A622" t="n">
@@ -18635,7 +18010,6 @@
         <v>0</v>
       </c>
       <c r="H622" t="inlineStr"/>
-      <c r="I622" t="inlineStr"/>
     </row>
     <row r="623">
       <c r="A623" t="n">
@@ -18664,7 +18038,6 @@
         <v>0</v>
       </c>
       <c r="H623" t="inlineStr"/>
-      <c r="I623" t="inlineStr"/>
     </row>
     <row r="624">
       <c r="A624" t="n">
@@ -18693,7 +18066,6 @@
         <v>0</v>
       </c>
       <c r="H624" t="inlineStr"/>
-      <c r="I624" t="inlineStr"/>
     </row>
     <row r="625">
       <c r="A625" t="n">
@@ -18722,7 +18094,6 @@
         <v>0</v>
       </c>
       <c r="H625" t="inlineStr"/>
-      <c r="I625" t="inlineStr"/>
     </row>
     <row r="626">
       <c r="A626" t="n">
@@ -18751,7 +18122,6 @@
         <v>0</v>
       </c>
       <c r="H626" t="inlineStr"/>
-      <c r="I626" t="inlineStr"/>
     </row>
     <row r="627">
       <c r="A627" t="n">
@@ -18780,7 +18150,6 @@
         <v>0</v>
       </c>
       <c r="H627" t="inlineStr"/>
-      <c r="I627" t="inlineStr"/>
     </row>
     <row r="628">
       <c r="A628" t="n">
@@ -18809,7 +18178,6 @@
         <v>0</v>
       </c>
       <c r="H628" t="inlineStr"/>
-      <c r="I628" t="inlineStr"/>
     </row>
     <row r="629">
       <c r="A629" t="n">
@@ -18838,7 +18206,6 @@
         <v>0</v>
       </c>
       <c r="H629" t="inlineStr"/>
-      <c r="I629" t="inlineStr"/>
     </row>
     <row r="630">
       <c r="A630" t="n">
@@ -18867,7 +18234,6 @@
         <v>0</v>
       </c>
       <c r="H630" t="inlineStr"/>
-      <c r="I630" t="inlineStr"/>
     </row>
     <row r="631">
       <c r="A631" t="n">
@@ -18896,7 +18262,6 @@
         <v>0</v>
       </c>
       <c r="H631" t="inlineStr"/>
-      <c r="I631" t="inlineStr"/>
     </row>
     <row r="632">
       <c r="A632" t="n">
@@ -18925,7 +18290,6 @@
         <v>0</v>
       </c>
       <c r="H632" t="inlineStr"/>
-      <c r="I632" t="inlineStr"/>
     </row>
     <row r="633">
       <c r="A633" t="n">
@@ -18958,7 +18322,6 @@
           <t xml:space="preserve">RET IIBB TUCUMAN </t>
         </is>
       </c>
-      <c r="I633" t="inlineStr"/>
     </row>
     <row r="634">
       <c r="A634" t="n">
@@ -18987,7 +18350,6 @@
         <v>0</v>
       </c>
       <c r="H634" t="inlineStr"/>
-      <c r="I634" t="inlineStr"/>
     </row>
     <row r="635">
       <c r="A635" t="n">
@@ -19020,7 +18382,6 @@
           <t>.</t>
         </is>
       </c>
-      <c r="I635" t="inlineStr"/>
     </row>
     <row r="636">
       <c r="A636" t="n">
@@ -19049,7 +18410,6 @@
         <v>0</v>
       </c>
       <c r="H636" t="inlineStr"/>
-      <c r="I636" t="inlineStr"/>
     </row>
     <row r="637">
       <c r="A637" t="n">
@@ -19078,7 +18438,6 @@
         <v>0</v>
       </c>
       <c r="H637" t="inlineStr"/>
-      <c r="I637" t="inlineStr"/>
     </row>
     <row r="638">
       <c r="A638" t="n">
@@ -19107,7 +18466,6 @@
         <v>0</v>
       </c>
       <c r="H638" t="inlineStr"/>
-      <c r="I638" t="inlineStr"/>
     </row>
     <row r="639">
       <c r="A639" t="n">
@@ -19136,7 +18494,6 @@
         <v>0</v>
       </c>
       <c r="H639" t="inlineStr"/>
-      <c r="I639" t="inlineStr"/>
     </row>
     <row r="640">
       <c r="A640" t="n">
@@ -19165,7 +18522,6 @@
         <v>0</v>
       </c>
       <c r="H640" t="inlineStr"/>
-      <c r="I640" t="inlineStr"/>
     </row>
     <row r="641">
       <c r="A641" t="n">
@@ -19198,7 +18554,6 @@
           <t>RET IIBB TUCUMAN</t>
         </is>
       </c>
-      <c r="I641" t="inlineStr"/>
     </row>
     <row r="642">
       <c r="A642" t="n">
@@ -19227,7 +18582,6 @@
         <v>0</v>
       </c>
       <c r="H642" t="inlineStr"/>
-      <c r="I642" t="inlineStr"/>
     </row>
     <row r="643">
       <c r="A643" t="n">
@@ -19256,7 +18610,6 @@
         <v>0</v>
       </c>
       <c r="H643" t="inlineStr"/>
-      <c r="I643" t="inlineStr"/>
     </row>
     <row r="644">
       <c r="A644" t="n">
@@ -19285,7 +18638,6 @@
         <v>0</v>
       </c>
       <c r="H644" t="inlineStr"/>
-      <c r="I644" t="inlineStr"/>
     </row>
     <row r="645">
       <c r="A645" t="n">
@@ -19314,7 +18666,6 @@
         <v>0</v>
       </c>
       <c r="H645" t="inlineStr"/>
-      <c r="I645" t="inlineStr"/>
     </row>
     <row r="646">
       <c r="A646" t="n">
@@ -19343,7 +18694,6 @@
         <v>0</v>
       </c>
       <c r="H646" t="inlineStr"/>
-      <c r="I646" t="inlineStr"/>
     </row>
     <row r="647">
       <c r="A647" t="n">
@@ -19368,7 +18718,6 @@
         <v>859174.61</v>
       </c>
       <c r="H647" t="inlineStr"/>
-      <c r="I647" t="inlineStr"/>
     </row>
     <row r="648">
       <c r="A648" t="n">
@@ -19401,7 +18750,6 @@
           <t>Control adjunto OK</t>
         </is>
       </c>
-      <c r="I648" t="inlineStr"/>
     </row>
     <row r="649">
       <c r="A649" t="n">
@@ -19430,7 +18778,6 @@
         <v>0</v>
       </c>
       <c r="H649" t="inlineStr"/>
-      <c r="I649" t="inlineStr"/>
     </row>
     <row r="650">
       <c r="A650" t="n">
@@ -19463,7 +18810,6 @@
           <t>CONTROL ADJUNTO</t>
         </is>
       </c>
-      <c r="I650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" t="n">
@@ -19496,7 +18842,6 @@
           <t>control adjunto</t>
         </is>
       </c>
-      <c r="I651" t="inlineStr"/>
     </row>
     <row r="652">
       <c r="A652" t="n">
@@ -19529,7 +18874,6 @@
           <t xml:space="preserve">Control adjunto </t>
         </is>
       </c>
-      <c r="I652" t="inlineStr"/>
     </row>
     <row r="653">
       <c r="A653" t="n">
@@ -19558,7 +18902,6 @@
         <v>0</v>
       </c>
       <c r="H653" t="inlineStr"/>
-      <c r="I653" t="inlineStr"/>
     </row>
     <row r="654">
       <c r="A654" t="n">
@@ -19587,7 +18930,6 @@
         <v>0</v>
       </c>
       <c r="H654" t="inlineStr"/>
-      <c r="I654" t="inlineStr"/>
     </row>
     <row r="655">
       <c r="A655" t="n">
@@ -19620,7 +18962,6 @@
           <t>control adjunto</t>
         </is>
       </c>
-      <c r="I655" t="inlineStr"/>
     </row>
     <row r="656">
       <c r="A656" t="n">
@@ -19649,7 +18990,6 @@
         <v>0</v>
       </c>
       <c r="H656" t="inlineStr"/>
-      <c r="I656" t="inlineStr"/>
     </row>
     <row r="657">
       <c r="A657" t="n">
@@ -19674,7 +19014,6 @@
         <v>2549062.95</v>
       </c>
       <c r="H657" t="inlineStr"/>
-      <c r="I657" t="inlineStr"/>
     </row>
     <row r="658">
       <c r="A658" t="n">
@@ -19703,7 +19042,6 @@
         <v>0</v>
       </c>
       <c r="H658" t="inlineStr"/>
-      <c r="I658" t="inlineStr"/>
     </row>
     <row r="659">
       <c r="A659" t="n">
@@ -19732,7 +19070,6 @@
         <v>0</v>
       </c>
       <c r="H659" t="inlineStr"/>
-      <c r="I659" t="inlineStr"/>
     </row>
     <row r="660">
       <c r="A660" t="n">
@@ -19761,7 +19098,6 @@
         <v>0</v>
       </c>
       <c r="H660" t="inlineStr"/>
-      <c r="I660" t="inlineStr"/>
     </row>
     <row r="661">
       <c r="A661" t="n">
@@ -19786,7 +19122,6 @@
         <v>12.59</v>
       </c>
       <c r="H661" t="inlineStr"/>
-      <c r="I661" t="inlineStr"/>
     </row>
     <row r="662">
       <c r="A662" t="n">
@@ -19815,7 +19150,6 @@
         <v>0</v>
       </c>
       <c r="H662" t="inlineStr"/>
-      <c r="I662" t="inlineStr"/>
     </row>
     <row r="663">
       <c r="A663" t="n">
@@ -19844,7 +19178,6 @@
         <v>0</v>
       </c>
       <c r="H663" t="inlineStr"/>
-      <c r="I663" t="inlineStr"/>
     </row>
     <row r="664">
       <c r="A664" t="n">
@@ -19877,7 +19210,6 @@
           <t>RET IIBB TUCUMAN</t>
         </is>
       </c>
-      <c r="I664" t="inlineStr"/>
     </row>
     <row r="665">
       <c r="A665" t="n">
@@ -19906,7 +19238,6 @@
         <v>0</v>
       </c>
       <c r="H665" t="inlineStr"/>
-      <c r="I665" t="inlineStr"/>
     </row>
     <row r="666">
       <c r="A666" t="n">
@@ -19931,7 +19262,6 @@
         <v>18219.83</v>
       </c>
       <c r="H666" t="inlineStr"/>
-      <c r="I666" t="inlineStr"/>
     </row>
     <row r="667">
       <c r="A667" t="n">
@@ -19960,7 +19290,6 @@
         <v>0</v>
       </c>
       <c r="H667" t="inlineStr"/>
-      <c r="I667" t="inlineStr"/>
     </row>
     <row r="668">
       <c r="A668" t="n">
@@ -19989,7 +19318,6 @@
         <v>0</v>
       </c>
       <c r="H668" t="inlineStr"/>
-      <c r="I668" t="inlineStr"/>
     </row>
     <row r="669">
       <c r="A669" t="n">
@@ -20018,7 +19346,6 @@
         <v>0</v>
       </c>
       <c r="H669" t="inlineStr"/>
-      <c r="I669" t="inlineStr"/>
     </row>
     <row r="670">
       <c r="A670" t="n">
@@ -20047,7 +19374,6 @@
         <v>0</v>
       </c>
       <c r="H670" t="inlineStr"/>
-      <c r="I670" t="inlineStr"/>
     </row>
     <row r="671">
       <c r="A671" t="n">
@@ -20076,7 +19402,6 @@
         <v>0</v>
       </c>
       <c r="H671" t="inlineStr"/>
-      <c r="I671" t="inlineStr"/>
     </row>
     <row r="672">
       <c r="A672" t="n">
@@ -20109,7 +19434,6 @@
           <t xml:space="preserve">Titular Vendedor LPG: 4124-UNION AGRICOLA DE AVELLANEDA COOP LTDA  \ </t>
         </is>
       </c>
-      <c r="I672" t="inlineStr"/>
     </row>
     <row r="673">
       <c r="A673" t="n">
@@ -20142,7 +19466,6 @@
           <t xml:space="preserve">Titular Vendedor LPG: 4124-UNION AGRICOLA DE AVELLANEDA COOP LTDA  \ </t>
         </is>
       </c>
-      <c r="I673" t="inlineStr"/>
     </row>
     <row r="674">
       <c r="A674" t="n">
@@ -20171,7 +19494,6 @@
         <v>0</v>
       </c>
       <c r="H674" t="inlineStr"/>
-      <c r="I674" t="inlineStr"/>
     </row>
     <row r="675">
       <c r="A675" t="n">
@@ -20200,7 +19522,6 @@
         <v>0</v>
       </c>
       <c r="H675" t="inlineStr"/>
-      <c r="I675" t="inlineStr"/>
     </row>
     <row r="676">
       <c r="A676" t="n">
@@ -20229,7 +19550,6 @@
         <v>0</v>
       </c>
       <c r="H676" t="inlineStr"/>
-      <c r="I676" t="inlineStr"/>
     </row>
     <row r="677">
       <c r="A677" t="n">
@@ -20258,7 +19578,6 @@
         <v>0</v>
       </c>
       <c r="H677" t="inlineStr"/>
-      <c r="I677" t="inlineStr"/>
     </row>
     <row r="678">
       <c r="A678" t="n">
@@ -20287,7 +19606,6 @@
         <v>0</v>
       </c>
       <c r="H678" t="inlineStr"/>
-      <c r="I678" t="inlineStr"/>
     </row>
     <row r="679">
       <c r="A679" t="n">
@@ -20320,7 +19638,6 @@
           <t>.</t>
         </is>
       </c>
-      <c r="I679" t="inlineStr"/>
     </row>
     <row r="680">
       <c r="A680" t="n">
@@ -20349,7 +19666,6 @@
         <v>0</v>
       </c>
       <c r="H680" t="inlineStr"/>
-      <c r="I680" t="inlineStr"/>
     </row>
     <row r="681">
       <c r="A681" t="n">
@@ -20378,7 +19694,6 @@
         <v>0</v>
       </c>
       <c r="H681" t="inlineStr"/>
-      <c r="I681" t="inlineStr"/>
     </row>
     <row r="682">
       <c r="A682" t="n">
@@ -20407,7 +19722,6 @@
         <v>0</v>
       </c>
       <c r="H682" t="inlineStr"/>
-      <c r="I682" t="inlineStr"/>
     </row>
     <row r="683">
       <c r="A683" t="n">
@@ -20436,7 +19750,6 @@
         <v>0</v>
       </c>
       <c r="H683" t="inlineStr"/>
-      <c r="I683" t="inlineStr"/>
     </row>
     <row r="684">
       <c r="A684" t="n">
@@ -20465,7 +19778,6 @@
         <v>0</v>
       </c>
       <c r="H684" t="inlineStr"/>
-      <c r="I684" t="inlineStr"/>
     </row>
     <row r="685">
       <c r="A685" t="n">
@@ -20494,7 +19806,6 @@
         <v>0</v>
       </c>
       <c r="H685" t="inlineStr"/>
-      <c r="I685" t="inlineStr"/>
     </row>
     <row r="686">
       <c r="A686" t="n">
@@ -20523,7 +19834,6 @@
         <v>0</v>
       </c>
       <c r="H686" t="inlineStr"/>
-      <c r="I686" t="inlineStr"/>
     </row>
     <row r="687">
       <c r="A687" t="n">
@@ -20548,7 +19858,6 @@
         <v>0</v>
       </c>
       <c r="H687" t="inlineStr"/>
-      <c r="I687" t="inlineStr"/>
     </row>
     <row r="688">
       <c r="A688" t="n">
@@ -20577,7 +19886,6 @@
         <v>0</v>
       </c>
       <c r="H688" t="inlineStr"/>
-      <c r="I688" t="inlineStr"/>
     </row>
     <row r="689">
       <c r="A689" t="n">
@@ -20606,7 +19914,6 @@
         <v>0</v>
       </c>
       <c r="H689" t="inlineStr"/>
-      <c r="I689" t="inlineStr"/>
     </row>
     <row r="690">
       <c r="A690" t="n">
@@ -20635,7 +19942,6 @@
         <v>0</v>
       </c>
       <c r="H690" t="inlineStr"/>
-      <c r="I690" t="inlineStr"/>
     </row>
     <row r="691">
       <c r="A691" t="n">
@@ -20664,7 +19970,6 @@
         <v>0</v>
       </c>
       <c r="H691" t="inlineStr"/>
-      <c r="I691" t="inlineStr"/>
     </row>
     <row r="692">
       <c r="A692" t="n">
@@ -20693,7 +19998,6 @@
         <v>176.75</v>
       </c>
       <c r="H692" t="inlineStr"/>
-      <c r="I692" t="inlineStr"/>
     </row>
     <row r="693">
       <c r="A693" t="n">
@@ -20722,7 +20026,6 @@
         <v>0</v>
       </c>
       <c r="H693" t="inlineStr"/>
-      <c r="I693" t="inlineStr"/>
     </row>
     <row r="694">
       <c r="A694" t="n">
@@ -20751,7 +20054,6 @@
         <v>0</v>
       </c>
       <c r="H694" t="inlineStr"/>
-      <c r="I694" t="inlineStr"/>
     </row>
     <row r="695">
       <c r="A695" t="n">
@@ -20776,7 +20078,6 @@
         <v>0</v>
       </c>
       <c r="H695" t="inlineStr"/>
-      <c r="I695" t="inlineStr"/>
     </row>
     <row r="696">
       <c r="A696" t="n">
@@ -20805,7 +20106,6 @@
         <v>45898.84</v>
       </c>
       <c r="H696" t="inlineStr"/>
-      <c r="I696" t="inlineStr"/>
     </row>
     <row r="697">
       <c r="A697" t="n">
@@ -20834,7 +20134,6 @@
         <v>45974.25</v>
       </c>
       <c r="H697" t="inlineStr"/>
-      <c r="I697" t="inlineStr"/>
     </row>
     <row r="698">
       <c r="A698" t="n">
@@ -20863,7 +20162,6 @@
         <v>45592.35</v>
       </c>
       <c r="H698" t="inlineStr"/>
-      <c r="I698" t="inlineStr"/>
     </row>
     <row r="699">
       <c r="A699" t="n">
@@ -20892,7 +20190,6 @@
         <v>45592.35</v>
       </c>
       <c r="H699" t="inlineStr"/>
-      <c r="I699" t="inlineStr"/>
     </row>
     <row r="700">
       <c r="A700" t="n">
@@ -20921,7 +20218,6 @@
         <v>459.74</v>
       </c>
       <c r="H700" t="inlineStr"/>
-      <c r="I700" t="inlineStr"/>
     </row>
     <row r="701">
       <c r="A701" t="n">
@@ -20950,7 +20246,6 @@
         <v>459.74</v>
       </c>
       <c r="H701" t="inlineStr"/>
-      <c r="I701" t="inlineStr"/>
     </row>
     <row r="702">
       <c r="A702" t="n">
@@ -20979,7 +20274,6 @@
         <v>0</v>
       </c>
       <c r="H702" t="inlineStr"/>
-      <c r="I702" t="inlineStr"/>
     </row>
     <row r="703">
       <c r="A703" t="n">
@@ -21008,7 +20302,6 @@
         <v>0</v>
       </c>
       <c r="H703" t="inlineStr"/>
-      <c r="I703" t="inlineStr"/>
     </row>
     <row r="704">
       <c r="A704" t="n">
@@ -21033,7 +20326,6 @@
         <v>0</v>
       </c>
       <c r="H704" t="inlineStr"/>
-      <c r="I704" t="inlineStr"/>
     </row>
     <row r="705">
       <c r="A705" t="n">
@@ -21062,7 +20354,6 @@
         <v>0</v>
       </c>
       <c r="H705" t="inlineStr"/>
-      <c r="I705" t="inlineStr"/>
     </row>
     <row r="706">
       <c r="A706" t="n">
@@ -21091,7 +20382,6 @@
         <v>0</v>
       </c>
       <c r="H706" t="inlineStr"/>
-      <c r="I706" t="inlineStr"/>
     </row>
     <row r="707">
       <c r="A707" t="n">
@@ -21120,7 +20410,6 @@
         <v>0</v>
       </c>
       <c r="H707" t="inlineStr"/>
-      <c r="I707" t="inlineStr"/>
     </row>
     <row r="708">
       <c r="A708" t="n">
@@ -21149,7 +20438,6 @@
         <v>0</v>
       </c>
       <c r="H708" t="inlineStr"/>
-      <c r="I708" t="inlineStr"/>
     </row>
     <row r="709">
       <c r="A709" t="n">
@@ -21178,7 +20466,6 @@
         <v>0</v>
       </c>
       <c r="H709" t="inlineStr"/>
-      <c r="I709" t="inlineStr"/>
     </row>
     <row r="710">
       <c r="A710" t="n">
@@ -21207,7 +20494,6 @@
         <v>0</v>
       </c>
       <c r="H710" t="inlineStr"/>
-      <c r="I710" t="inlineStr"/>
     </row>
     <row r="711">
       <c r="A711" t="n">
@@ -21236,7 +20522,6 @@
         <v>0</v>
       </c>
       <c r="H711" t="inlineStr"/>
-      <c r="I711" t="inlineStr"/>
     </row>
     <row r="712">
       <c r="A712" t="n">
@@ -21265,7 +20550,6 @@
         <v>0</v>
       </c>
       <c r="H712" t="inlineStr"/>
-      <c r="I712" t="inlineStr"/>
     </row>
     <row r="713">
       <c r="A713" t="n">
@@ -21294,7 +20578,6 @@
         <v>2051370.79</v>
       </c>
       <c r="H713" t="inlineStr"/>
-      <c r="I713" t="inlineStr"/>
     </row>
     <row r="714">
       <c r="A714" t="n">
@@ -21319,7 +20602,6 @@
         <v>22820.79</v>
       </c>
       <c r="H714" t="inlineStr"/>
-      <c r="I714" t="inlineStr"/>
     </row>
     <row r="715">
       <c r="A715" t="n">
@@ -21348,7 +20630,6 @@
         <v>0</v>
       </c>
       <c r="H715" t="inlineStr"/>
-      <c r="I715" t="inlineStr"/>
     </row>
     <row r="716">
       <c r="A716" t="n">
@@ -21377,7 +20658,6 @@
         <v>0</v>
       </c>
       <c r="H716" t="inlineStr"/>
-      <c r="I716" t="inlineStr"/>
     </row>
     <row r="717">
       <c r="A717" t="n">
@@ -21406,7 +20686,6 @@
         <v>0</v>
       </c>
       <c r="H717" t="inlineStr"/>
-      <c r="I717" t="inlineStr"/>
     </row>
     <row r="718">
       <c r="A718" t="n">
@@ -21435,7 +20714,6 @@
         <v>0</v>
       </c>
       <c r="H718" t="inlineStr"/>
-      <c r="I718" t="inlineStr"/>
     </row>
     <row r="719">
       <c r="A719" t="n">
@@ -21464,7 +20742,6 @@
         <v>0</v>
       </c>
       <c r="H719" t="inlineStr"/>
-      <c r="I719" t="inlineStr"/>
     </row>
     <row r="720">
       <c r="A720" t="n">
@@ -21493,7 +20770,6 @@
         <v>0</v>
       </c>
       <c r="H720" t="inlineStr"/>
-      <c r="I720" t="inlineStr"/>
     </row>
     <row r="721">
       <c r="A721" t="n">
@@ -21518,7 +20794,6 @@
         <v>131620.24</v>
       </c>
       <c r="H721" t="inlineStr"/>
-      <c r="I721" t="inlineStr"/>
     </row>
     <row r="722">
       <c r="A722" t="n">
@@ -21547,7 +20822,6 @@
         <v>0</v>
       </c>
       <c r="H722" t="inlineStr"/>
-      <c r="I722" t="inlineStr"/>
     </row>
     <row r="723">
       <c r="A723" t="n">
@@ -21576,7 +20850,6 @@
         <v>0</v>
       </c>
       <c r="H723" t="inlineStr"/>
-      <c r="I723" t="inlineStr"/>
     </row>
     <row r="724">
       <c r="A724" t="n">
@@ -21601,7 +20874,6 @@
         <v>49751.14</v>
       </c>
       <c r="H724" t="inlineStr"/>
-      <c r="I724" t="inlineStr"/>
     </row>
     <row r="725">
       <c r="A725" t="n">
@@ -21630,7 +20902,6 @@
         <v>0</v>
       </c>
       <c r="H725" t="inlineStr"/>
-      <c r="I725" t="inlineStr"/>
     </row>
     <row r="726">
       <c r="A726" t="n">
@@ -21659,7 +20930,6 @@
         <v>0</v>
       </c>
       <c r="H726" t="inlineStr"/>
-      <c r="I726" t="inlineStr"/>
     </row>
     <row r="727">
       <c r="A727" t="n">
@@ -21688,7 +20958,6 @@
         <v>0</v>
       </c>
       <c r="H727" t="inlineStr"/>
-      <c r="I727" t="inlineStr"/>
     </row>
     <row r="728">
       <c r="A728" t="n">
@@ -21717,7 +20986,6 @@
         <v>0</v>
       </c>
       <c r="H728" t="inlineStr"/>
-      <c r="I728" t="inlineStr"/>
     </row>
     <row r="729">
       <c r="A729" t="n">
@@ -21742,7 +21010,6 @@
         <v>0.01</v>
       </c>
       <c r="H729" t="inlineStr"/>
-      <c r="I729" t="inlineStr"/>
     </row>
     <row r="730">
       <c r="A730" t="n">
@@ -21767,7 +21034,6 @@
         <v>191291.37</v>
       </c>
       <c r="H730" t="inlineStr"/>
-      <c r="I730" t="inlineStr"/>
     </row>
     <row r="731">
       <c r="A731" t="n">
@@ -21800,7 +21066,6 @@
           <t>Cochera en Santiago Capital</t>
         </is>
       </c>
-      <c r="I731" t="inlineStr"/>
     </row>
     <row r="732">
       <c r="A732" t="n">
@@ -21829,7 +21094,6 @@
         <v>0</v>
       </c>
       <c r="H732" t="inlineStr"/>
-      <c r="I732" t="inlineStr"/>
     </row>
     <row r="733">
       <c r="A733" t="n">
@@ -21858,7 +21122,6 @@
         <v>0</v>
       </c>
       <c r="H733" t="inlineStr"/>
-      <c r="I733" t="inlineStr"/>
     </row>
     <row r="734">
       <c r="A734" t="n">
@@ -21891,7 +21154,6 @@
           <t xml:space="preserve">Titular Vendedor LPG: 288-COMMODITIES SA  \ </t>
         </is>
       </c>
-      <c r="I734" t="inlineStr"/>
     </row>
     <row r="735">
       <c r="A735" t="n">
@@ -21924,7 +21186,6 @@
           <t xml:space="preserve">Titular Vendedor LPG: 288-COMMODITIES SA  \ </t>
         </is>
       </c>
-      <c r="I735" t="inlineStr"/>
     </row>
     <row r="736">
       <c r="A736" t="n">
@@ -21957,7 +21218,6 @@
           <t xml:space="preserve">Titular Vendedor LPG: 288-COMMODITIES SA  \ </t>
         </is>
       </c>
-      <c r="I736" t="inlineStr"/>
     </row>
     <row r="737">
       <c r="A737" t="n">
@@ -21990,7 +21250,6 @@
           <t xml:space="preserve">Titular Vendedor LPG: 288-COMMODITIES SA  \ </t>
         </is>
       </c>
-      <c r="I737" t="inlineStr"/>
     </row>
     <row r="738">
       <c r="A738" t="n">
@@ -22023,7 +21282,6 @@
           <t xml:space="preserve">Titular Vendedor LPG: 288-COMMODITIES SA  \ </t>
         </is>
       </c>
-      <c r="I738" t="inlineStr"/>
     </row>
     <row r="739">
       <c r="A739" t="n">
@@ -22052,7 +21310,6 @@
         <v>0</v>
       </c>
       <c r="H739" t="inlineStr"/>
-      <c r="I739" t="inlineStr"/>
     </row>
     <row r="740">
       <c r="A740" t="n">
@@ -22085,7 +21342,6 @@
           <t xml:space="preserve">Titular Vendedor LPG: 288-COMMODITIES SA  \ </t>
         </is>
       </c>
-      <c r="I740" t="inlineStr"/>
     </row>
     <row r="741">
       <c r="A741" t="n">
@@ -22118,7 +21374,6 @@
           <t>Alquiler de cochera enero</t>
         </is>
       </c>
-      <c r="I741" t="inlineStr"/>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr"/>
@@ -22129,7 +21384,6 @@
       <c r="F742" t="inlineStr"/>
       <c r="G742" t="inlineStr"/>
       <c r="H742" t="inlineStr"/>
-      <c r="I742" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
